--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_4_6.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_4_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2653935.777736308</v>
+        <v>-2654648.079559351</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>167214.719915999</v>
+        <v>167214.7199159989</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058544</v>
+        <v>632041.4518058546</v>
       </c>
     </row>
     <row r="9">
@@ -1227,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2.817899082923868</v>
       </c>
       <c r="I9" t="n">
         <v>3.199249640013477</v>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>2.817899082923868</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>159.6238954891596</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>110.0309577827935</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>188.4979333192472</v>
+        <v>188.2919528850259</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>168.8731344554829</v>
       </c>
       <c r="I11" t="n">
-        <v>62.86150506240826</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,16 +1424,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>72.00227733958204</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>142.7315194560843</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>181.6344501416384</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1446,10 +1446,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>9.369887371298148</v>
+        <v>15.90521776370853</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>90.213666768934</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>52.47517038390257</v>
@@ -1491,31 +1491,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>6.869455874161009</v>
       </c>
       <c r="R12" t="n">
         <v>134.7198007890776</v>
       </c>
       <c r="S12" t="n">
-        <v>13.44252716693654</v>
+        <v>13.44252716693659</v>
       </c>
       <c r="T12" t="n">
-        <v>36.82265945242251</v>
+        <v>36.82265945242256</v>
       </c>
       <c r="U12" t="n">
-        <v>59.07980534382084</v>
+        <v>59.07980534382089</v>
       </c>
       <c r="V12" t="n">
-        <v>62.50065676233447</v>
+        <v>62.50065676233453</v>
       </c>
       <c r="W12" t="n">
-        <v>188.4979333192472</v>
+        <v>88.55631942394388</v>
       </c>
       <c r="X12" t="n">
-        <v>39.16465028640283</v>
+        <v>39.16465028640289</v>
       </c>
       <c r="Y12" t="n">
-        <v>45.23602198095784</v>
+        <v>45.2360219809579</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>25.28169700256634</v>
+        <v>25.2816970025664</v>
       </c>
       <c r="S13" t="n">
-        <v>57.28978021311278</v>
+        <v>57.28978021311284</v>
       </c>
       <c r="T13" t="n">
-        <v>45.61329429725524</v>
+        <v>45.61329429725529</v>
       </c>
       <c r="U13" t="n">
-        <v>110.5082928154978</v>
+        <v>110.5082928154979</v>
       </c>
       <c r="V13" t="n">
-        <v>66.96075103138213</v>
+        <v>66.96075103138219</v>
       </c>
       <c r="W13" t="n">
         <v>112.1624429362676</v>
       </c>
       <c r="X13" t="n">
-        <v>43.77119125517476</v>
+        <v>43.77119125517481</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.99300866110065</v>
+        <v>38.9930086611007</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>188.4979333192473</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>159.6238954891595</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>188.4979333192473</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>172.8924628452018</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>168.8731344554828</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1652,25 +1652,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>16.73328122929902</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>49.36873040538038</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>5.694285270681515</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>142.7315194560842</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>181.6344501416384</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1683,10 +1683,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
-        <v>9.369887371298177</v>
+        <v>150.6250185527867</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1704,10 +1704,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>107.3634103439873</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>52.47517038390258</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1728,31 +1728,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>6.869455874161016</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>13.44252716693656</v>
+        <v>13.44252716693651</v>
       </c>
       <c r="T15" t="n">
-        <v>180.81222438874</v>
+        <v>36.82265945242248</v>
       </c>
       <c r="U15" t="n">
-        <v>59.07980534382087</v>
+        <v>59.07980534382081</v>
       </c>
       <c r="V15" t="n">
-        <v>188.4979333192473</v>
+        <v>62.50065676233444</v>
       </c>
       <c r="W15" t="n">
-        <v>88.55631942394385</v>
+        <v>88.55631942394379</v>
       </c>
       <c r="X15" t="n">
-        <v>39.16465028640286</v>
+        <v>39.1646502864028</v>
       </c>
       <c r="Y15" t="n">
-        <v>45.23602198095787</v>
+        <v>45.23602198095782</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>25.28169700256637</v>
+        <v>25.28169700256631</v>
       </c>
       <c r="S16" t="n">
-        <v>57.28978021311281</v>
+        <v>57.28978021311276</v>
       </c>
       <c r="T16" t="n">
-        <v>45.61329429725527</v>
+        <v>45.61329429725521</v>
       </c>
       <c r="U16" t="n">
-        <v>110.5082928154979</v>
+        <v>110.5082928154978</v>
       </c>
       <c r="V16" t="n">
-        <v>66.96075103138216</v>
+        <v>66.9607510313821</v>
       </c>
       <c r="W16" t="n">
-        <v>112.1624429362676</v>
+        <v>112.1624429362675</v>
       </c>
       <c r="X16" t="n">
-        <v>43.77119125517478</v>
+        <v>43.77119125517473</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.99300866110067</v>
+        <v>38.99300866110062</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>76.63956945084891</v>
+        <v>76.63956945084885</v>
       </c>
       <c r="C17" t="n">
-        <v>52.7578264541944</v>
+        <v>52.75782645419434</v>
       </c>
       <c r="D17" t="n">
-        <v>40.32448871524286</v>
+        <v>40.32448871524281</v>
       </c>
       <c r="E17" t="n">
-        <v>74.03124113465174</v>
+        <v>74.03124113465168</v>
       </c>
       <c r="F17" t="n">
-        <v>105.7515787130291</v>
+        <v>105.751578713029</v>
       </c>
       <c r="G17" t="n">
-        <v>121.3905020356641</v>
+        <v>121.390502035664</v>
       </c>
       <c r="H17" t="n">
-        <v>49.57372768156614</v>
+        <v>49.57372768156608</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>23.4321126821676</v>
+        <v>23.43211268216754</v>
       </c>
       <c r="W17" t="n">
-        <v>40.44879289878247</v>
+        <v>40.44879289878241</v>
       </c>
       <c r="X17" t="n">
-        <v>62.33504336772171</v>
+        <v>62.33504336772165</v>
       </c>
       <c r="Y17" t="n">
-        <v>84.83789649146547</v>
+        <v>84.83789649146541</v>
       </c>
     </row>
     <row r="18">
@@ -1923,16 +1923,16 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1944,7 +1944,7 @@
         <v>107.3634103439873</v>
       </c>
       <c r="J18" t="n">
-        <v>52.47517038390257</v>
+        <v>52.47517038390258</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>6.869455874161019</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -1974,19 +1974,19 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>45.6657987443085</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="V18" t="n">
-        <v>188.4979333192473</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>36.49579897725311</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>76.63956945084885</v>
+        <v>76.63956945084891</v>
       </c>
       <c r="C20" t="n">
-        <v>52.75782645419434</v>
+        <v>52.7578264541944</v>
       </c>
       <c r="D20" t="n">
-        <v>40.32448871524281</v>
+        <v>40.32448871524286</v>
       </c>
       <c r="E20" t="n">
-        <v>74.03124113465168</v>
+        <v>74.03124113465174</v>
       </c>
       <c r="F20" t="n">
-        <v>105.751578713029</v>
+        <v>105.7515787130291</v>
       </c>
       <c r="G20" t="n">
-        <v>121.390502035664</v>
+        <v>121.3905020356641</v>
       </c>
       <c r="H20" t="n">
-        <v>49.57372768156608</v>
+        <v>49.57372768156614</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>23.43211268216754</v>
+        <v>23.4321126821676</v>
       </c>
       <c r="W20" t="n">
-        <v>40.44879289878241</v>
+        <v>40.44879289878247</v>
       </c>
       <c r="X20" t="n">
-        <v>62.33504336772165</v>
+        <v>62.33504336772171</v>
       </c>
       <c r="Y20" t="n">
-        <v>84.83789649146541</v>
+        <v>84.83789649146547</v>
       </c>
     </row>
     <row r="21">
@@ -2160,10 +2160,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2172,16 +2172,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>7.836446385895712</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>107.3634103439873</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>52.47517038390258</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2202,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>6.869455874161019</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -2214,16 +2214,16 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="V21" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>187.8188763847893</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>76.63956945084885</v>
+        <v>76.63956945084891</v>
       </c>
       <c r="C23" t="n">
-        <v>52.75782645419434</v>
+        <v>52.7578264541944</v>
       </c>
       <c r="D23" t="n">
-        <v>40.32448871524281</v>
+        <v>40.32448871524286</v>
       </c>
       <c r="E23" t="n">
-        <v>74.03124113465168</v>
+        <v>74.03124113465174</v>
       </c>
       <c r="F23" t="n">
-        <v>105.751578713029</v>
+        <v>105.7515787130291</v>
       </c>
       <c r="G23" t="n">
-        <v>121.390502035664</v>
+        <v>121.3905020356641</v>
       </c>
       <c r="H23" t="n">
-        <v>49.57372768156608</v>
+        <v>49.57372768156614</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,16 +2375,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>23.43211268216754</v>
+        <v>23.4321126821676</v>
       </c>
       <c r="W23" t="n">
-        <v>40.44879289878241</v>
+        <v>40.44879289878247</v>
       </c>
       <c r="X23" t="n">
-        <v>62.33504336772165</v>
+        <v>62.33504336772171</v>
       </c>
       <c r="Y23" t="n">
-        <v>84.83789649146541</v>
+        <v>84.83789649146547</v>
       </c>
     </row>
     <row r="24">
@@ -2397,13 +2397,13 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>52.47517038390258</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2439,23 +2439,23 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.869455874161016</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>134.7198007890776</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>182.6993411470406</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
         <v>188.4979333192472</v>
       </c>
-      <c r="V24" t="n">
-        <v>2.269952658001647</v>
-      </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
@@ -2463,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
     </row>
     <row r="25">
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>160.6024898538324</v>
+        <v>160.6024898538323</v>
       </c>
       <c r="C26" t="n">
-        <v>136.7207468571779</v>
+        <v>136.7207468571778</v>
       </c>
       <c r="D26" t="n">
         <v>124.2874091182263</v>
@@ -2573,7 +2573,7 @@
         <v>133.5366480845496</v>
       </c>
       <c r="I26" t="n">
-        <v>27.52501869147511</v>
+        <v>27.52501869147505</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.03224403444725</v>
+        <v>14.03224403444719</v>
       </c>
       <c r="T26" t="n">
-        <v>8.981130875818309</v>
+        <v>8.981130875818264</v>
       </c>
       <c r="U26" t="n">
-        <v>36.66579096864882</v>
+        <v>36.66579096864876</v>
       </c>
       <c r="V26" t="n">
-        <v>107.3950330851511</v>
+        <v>107.395033085151</v>
       </c>
       <c r="W26" t="n">
-        <v>124.411713301766</v>
+        <v>124.4117133017659</v>
       </c>
       <c r="X26" t="n">
-        <v>146.2979637707052</v>
+        <v>146.2979637707051</v>
       </c>
       <c r="Y26" t="n">
-        <v>168.800816894449</v>
+        <v>168.8008168944489</v>
       </c>
     </row>
     <row r="27">
@@ -2643,7 +2643,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2655,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>37.62829075941777</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2685,22 +2685,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>197.9379029608352</v>
+        <v>1.48617308148929</v>
       </c>
       <c r="U27" t="n">
-        <v>237.2280694968886</v>
+        <v>23.74331897288762</v>
       </c>
       <c r="V27" t="n">
-        <v>27.16417039140131</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W27" t="n">
-        <v>53.21983305301066</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X27" t="n">
-        <v>3.828163915469673</v>
+        <v>3.828163915469617</v>
       </c>
       <c r="Y27" t="n">
-        <v>223.3842861340256</v>
+        <v>9.899535610024628</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>21.95329384217963</v>
+        <v>21.95329384217957</v>
       </c>
       <c r="T28" t="n">
-        <v>10.27680792632208</v>
+        <v>10.27680792632202</v>
       </c>
       <c r="U28" t="n">
-        <v>75.17180644456468</v>
+        <v>75.17180644456462</v>
       </c>
       <c r="V28" t="n">
-        <v>31.62426466044897</v>
+        <v>31.62426466044892</v>
       </c>
       <c r="W28" t="n">
-        <v>76.82595656533439</v>
+        <v>76.82595656533434</v>
       </c>
       <c r="X28" t="n">
-        <v>8.434704884241597</v>
+        <v>8.43470488424154</v>
       </c>
       <c r="Y28" t="n">
-        <v>3.656522290167487</v>
+        <v>3.65652229016743</v>
       </c>
     </row>
     <row r="29">
@@ -2798,7 +2798,7 @@
         <v>124.2874091182263</v>
       </c>
       <c r="E29" t="n">
-        <v>157.9941615376352</v>
+        <v>157.9941615376351</v>
       </c>
       <c r="F29" t="n">
         <v>189.7144991160125</v>
@@ -2807,10 +2807,10 @@
         <v>205.3534224386475</v>
       </c>
       <c r="H29" t="n">
-        <v>133.5366480845496</v>
+        <v>133.5366480845495</v>
       </c>
       <c r="I29" t="n">
-        <v>27.52501869147505</v>
+        <v>27.52501869147502</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.03224403444719</v>
+        <v>14.03224403444716</v>
       </c>
       <c r="T29" t="n">
-        <v>8.981130875818264</v>
+        <v>8.981130875818236</v>
       </c>
       <c r="U29" t="n">
-        <v>36.66579096864876</v>
+        <v>36.66579096864874</v>
       </c>
       <c r="V29" t="n">
         <v>107.395033085151</v>
@@ -2868,10 +2868,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2886,13 +2886,13 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>122.2475547605406</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>107.3634103439873</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>52.47517038390258</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>134.7198007890776</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2925,19 +2925,19 @@
         <v>214.9709236054903</v>
       </c>
       <c r="U30" t="n">
-        <v>23.74331897288762</v>
+        <v>23.74331897288759</v>
       </c>
       <c r="V30" t="n">
-        <v>27.16417039140126</v>
+        <v>27.16417039140123</v>
       </c>
       <c r="W30" t="n">
-        <v>105.7571234084871</v>
+        <v>53.21983305301057</v>
       </c>
       <c r="X30" t="n">
-        <v>3.828163915469617</v>
+        <v>3.828163915469588</v>
       </c>
       <c r="Y30" t="n">
-        <v>9.899535610024628</v>
+        <v>9.8995356100246</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>21.95329384217957</v>
+        <v>21.95329384217954</v>
       </c>
       <c r="T31" t="n">
-        <v>10.27680792632202</v>
+        <v>10.27680792632199</v>
       </c>
       <c r="U31" t="n">
-        <v>75.17180644456462</v>
+        <v>75.1718064445646</v>
       </c>
       <c r="V31" t="n">
-        <v>31.62426466044892</v>
+        <v>31.62426466044889</v>
       </c>
       <c r="W31" t="n">
-        <v>76.82595656533434</v>
+        <v>76.82595656533431</v>
       </c>
       <c r="X31" t="n">
-        <v>8.43470488424154</v>
+        <v>8.434704884241512</v>
       </c>
       <c r="Y31" t="n">
-        <v>3.65652229016743</v>
+        <v>3.656522290167402</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>159.7747799869681</v>
+        <v>159.7747799869682</v>
       </c>
       <c r="C32" t="n">
         <v>135.8930369903136</v>
@@ -3035,7 +3035,7 @@
         <v>123.4596992513621</v>
       </c>
       <c r="E32" t="n">
-        <v>157.1664516707709</v>
+        <v>157.166451670771</v>
       </c>
       <c r="F32" t="n">
         <v>188.8867892491483</v>
@@ -3044,10 +3044,10 @@
         <v>204.5257125717833</v>
       </c>
       <c r="H32" t="n">
-        <v>132.7089382176853</v>
+        <v>132.7089382176854</v>
       </c>
       <c r="I32" t="n">
-        <v>26.69730882461081</v>
+        <v>26.69730882461087</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>13.20453416758295</v>
+        <v>13.20453416758301</v>
       </c>
       <c r="T32" t="n">
-        <v>8.153421008954012</v>
+        <v>8.153421008954069</v>
       </c>
       <c r="U32" t="n">
-        <v>35.83808110178452</v>
+        <v>35.83808110178458</v>
       </c>
       <c r="V32" t="n">
         <v>106.5673232182868</v>
@@ -3092,7 +3092,7 @@
         <v>123.5840034349017</v>
       </c>
       <c r="X32" t="n">
-        <v>145.4702539038409</v>
+        <v>145.470253903841</v>
       </c>
       <c r="Y32" t="n">
         <v>167.9731070275847</v>
@@ -3108,22 +3108,22 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>140.1707508837734</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>158.8234391199283</v>
+        <v>74.02704476102865</v>
       </c>
       <c r="G33" t="n">
-        <v>148.7446044746268</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>6.869455874161016</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -3159,22 +3159,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0.6584632146250508</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U33" t="n">
-        <v>22.91560910602338</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V33" t="n">
-        <v>26.33646052453702</v>
+        <v>26.33646052453707</v>
       </c>
       <c r="W33" t="n">
-        <v>52.39212318614636</v>
+        <v>52.39212318614642</v>
       </c>
       <c r="X33" t="n">
-        <v>3.000454048605377</v>
+        <v>3.000454048605434</v>
       </c>
       <c r="Y33" t="n">
-        <v>9.071825743160389</v>
+        <v>9.071825743160446</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>21.12558397531533</v>
+        <v>21.12558397531539</v>
       </c>
       <c r="T34" t="n">
-        <v>9.449098059457782</v>
+        <v>9.449098059457839</v>
       </c>
       <c r="U34" t="n">
-        <v>74.34409657770038</v>
+        <v>74.34409657770044</v>
       </c>
       <c r="V34" t="n">
-        <v>30.79655479358468</v>
+        <v>30.79655479358473</v>
       </c>
       <c r="W34" t="n">
-        <v>75.9982466984701</v>
+        <v>75.99824669847015</v>
       </c>
       <c r="X34" t="n">
-        <v>7.606995017377301</v>
+        <v>7.606995017377358</v>
       </c>
       <c r="Y34" t="n">
-        <v>2.828812423303191</v>
+        <v>2.828812423303248</v>
       </c>
     </row>
     <row r="35">
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>116.3938701754721</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3354,7 +3354,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3363,10 +3363,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>107.3634103439873</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>52.47517038390258</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>6.869455874161016</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>134.7198007890776</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3399,7 +3399,7 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>237.2280694968886</v>
+        <v>117.5530334749354</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -3408,7 +3408,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3582,25 +3582,25 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>175.4844892951835</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>46.05389607780551</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3624,13 +3624,13 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>6.869455874161016</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>191.5907913200043</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3645,10 +3645,10 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3816,31 +3816,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>34.65255303552661</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>125.7355245857741</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>107.3634103439873</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>52.47517038390258</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3861,16 +3861,16 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>6.869455874161016</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>67.40570482589889</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>214.9709236054903</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -4056,28 +4056,28 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
-        <v>156.5858862153094</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>125.7355245857741</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>52.47517038390258</v>
+        <v>39.72613402942292</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4098,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>6.869455874161016</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -4119,7 +4119,7 @@
         <v>25.69481436153558</v>
       </c>
       <c r="X45" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4799,25 +4799,25 @@
         <v>0.2559399712010781</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2559399712010781</v>
+        <v>0.384556269860207</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2559399712010781</v>
+        <v>0.384556269860207</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2559399712010781</v>
+        <v>0.384556269860207</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2559399712010781</v>
+        <v>0.384556269860207</v>
       </c>
       <c r="M8" t="n">
-        <v>3.42319711481442</v>
+        <v>3.551813413473549</v>
       </c>
       <c r="N8" t="n">
-        <v>6.590454258427762</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="O8" t="n">
-        <v>6.590454258427762</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="P8" t="n">
         <v>6.719070557086891</v>
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.719070557086891</v>
+        <v>9.565433267111001</v>
       </c>
       <c r="C9" t="n">
-        <v>6.719070557086891</v>
+        <v>9.565433267111001</v>
       </c>
       <c r="D9" t="n">
-        <v>6.719070557086891</v>
+        <v>9.565433267111001</v>
       </c>
       <c r="E9" t="n">
-        <v>6.719070557086891</v>
+        <v>9.565433267111001</v>
       </c>
       <c r="F9" t="n">
-        <v>6.719070557086891</v>
+        <v>9.565433267111001</v>
       </c>
       <c r="G9" t="n">
-        <v>6.719070557086891</v>
+        <v>9.565433267111001</v>
       </c>
       <c r="H9" t="n">
         <v>6.719070557086891</v>
@@ -4884,19 +4884,19 @@
         <v>0.2559399712010781</v>
       </c>
       <c r="K9" t="n">
-        <v>3.42319711481442</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="L9" t="n">
-        <v>6.590454258427762</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="M9" t="n">
-        <v>6.590454258427762</v>
+        <v>3.295227129213883</v>
       </c>
       <c r="N9" t="n">
-        <v>6.590454258427762</v>
+        <v>6.462484272827225</v>
       </c>
       <c r="O9" t="n">
-        <v>9.757711402041103</v>
+        <v>9.629741416440567</v>
       </c>
       <c r="P9" t="n">
         <v>12.79699856005391</v>
@@ -4920,13 +4920,13 @@
         <v>9.565433267111001</v>
       </c>
       <c r="W9" t="n">
-        <v>6.719070557086891</v>
+        <v>9.565433267111001</v>
       </c>
       <c r="X9" t="n">
-        <v>6.719070557086891</v>
+        <v>9.565433267111001</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.719070557086891</v>
+        <v>9.565433267111001</v>
       </c>
     </row>
     <row r="10">
@@ -5015,49 +5015,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>380.120638872054</v>
+        <v>537.0889082308613</v>
       </c>
       <c r="C11" t="n">
-        <v>380.120638872054</v>
+        <v>537.0889082308613</v>
       </c>
       <c r="D11" t="n">
-        <v>380.120638872054</v>
+        <v>375.8526501610032</v>
       </c>
       <c r="E11" t="n">
-        <v>380.120638872054</v>
+        <v>375.8526501610032</v>
       </c>
       <c r="F11" t="n">
-        <v>268.9782572732726</v>
+        <v>375.8526501610032</v>
       </c>
       <c r="G11" t="n">
-        <v>78.57630442554813</v>
+        <v>185.6587583579467</v>
       </c>
       <c r="H11" t="n">
-        <v>78.57630442554813</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="I11" t="n">
         <v>15.07983466553978</v>
       </c>
       <c r="J11" t="n">
-        <v>74.4428128599005</v>
+        <v>115.4328134021287</v>
       </c>
       <c r="K11" t="n">
-        <v>244.1496741465997</v>
+        <v>285.1396746888279</v>
       </c>
       <c r="L11" t="n">
-        <v>290.8705166273598</v>
+        <v>331.8605171695881</v>
       </c>
       <c r="M11" t="n">
-        <v>371.7324157143072</v>
+        <v>412.7224162565354</v>
       </c>
       <c r="N11" t="n">
-        <v>558.345369700362</v>
+        <v>488.0503093922279</v>
       </c>
       <c r="O11" t="n">
-        <v>592.5660043930297</v>
+        <v>666.4395714324996</v>
       </c>
       <c r="P11" t="n">
-        <v>753.991733276989</v>
+        <v>666.4395714324996</v>
       </c>
       <c r="Q11" t="n">
         <v>753.991733276989</v>
@@ -5072,19 +5072,19 @@
         <v>753.991733276989</v>
       </c>
       <c r="U11" t="n">
-        <v>753.991733276989</v>
+        <v>681.262160206704</v>
       </c>
       <c r="V11" t="n">
-        <v>753.991733276989</v>
+        <v>537.0889082308613</v>
       </c>
       <c r="W11" t="n">
-        <v>753.991733276989</v>
+        <v>537.0889082308613</v>
       </c>
       <c r="X11" t="n">
-        <v>570.5225917197785</v>
+        <v>537.0889082308613</v>
       </c>
       <c r="Y11" t="n">
-        <v>570.5225917197785</v>
+        <v>537.0889082308613</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>168.6745059020395</v>
+        <v>84.1509338045409</v>
       </c>
       <c r="C12" t="n">
-        <v>159.2099732037586</v>
+        <v>68.08505727554238</v>
       </c>
       <c r="D12" t="n">
-        <v>159.2099732037586</v>
+        <v>68.08505727554238</v>
       </c>
       <c r="E12" t="n">
-        <v>159.2099732037586</v>
+        <v>68.08505727554238</v>
       </c>
       <c r="F12" t="n">
-        <v>159.2099732037586</v>
+        <v>68.08505727554238</v>
       </c>
       <c r="G12" t="n">
-        <v>159.2099732037586</v>
+        <v>68.08505727554238</v>
       </c>
       <c r="H12" t="n">
-        <v>159.2099732037586</v>
+        <v>68.08505727554238</v>
       </c>
       <c r="I12" t="n">
         <v>68.08505727554238</v>
@@ -5139,31 +5139,31 @@
         <v>753.991733276989</v>
       </c>
       <c r="Q12" t="n">
-        <v>753.991733276989</v>
+        <v>747.0528889596546</v>
       </c>
       <c r="R12" t="n">
-        <v>617.9111264193348</v>
+        <v>610.9722821020005</v>
       </c>
       <c r="S12" t="n">
-        <v>604.3328161497019</v>
+        <v>597.3939718323676</v>
       </c>
       <c r="T12" t="n">
-        <v>567.1382106422044</v>
+        <v>560.1993663248701</v>
       </c>
       <c r="U12" t="n">
-        <v>507.4616395878399</v>
+        <v>500.5227952705055</v>
       </c>
       <c r="V12" t="n">
-        <v>444.3296630602293</v>
+        <v>437.3908187428949</v>
       </c>
       <c r="W12" t="n">
-        <v>253.9277102125048</v>
+        <v>347.9399910419415</v>
       </c>
       <c r="X12" t="n">
-        <v>214.3674573979565</v>
+        <v>308.3797382273931</v>
       </c>
       <c r="Y12" t="n">
-        <v>168.6745059020395</v>
+        <v>262.686786731476</v>
       </c>
     </row>
     <row r="13">
@@ -5176,70 +5176,70 @@
         <v>15.07983466553978</v>
       </c>
       <c r="C13" t="n">
-        <v>26.65400701482424</v>
+        <v>26.65400701482419</v>
       </c>
       <c r="D13" t="n">
-        <v>26.65400701482424</v>
+        <v>26.65400701482419</v>
       </c>
       <c r="E13" t="n">
-        <v>62.76140872625859</v>
+        <v>26.65400701482419</v>
       </c>
       <c r="F13" t="n">
-        <v>62.76140872625859</v>
+        <v>26.65400701482419</v>
       </c>
       <c r="G13" t="n">
-        <v>62.76140872625859</v>
+        <v>26.65400701482419</v>
       </c>
       <c r="H13" t="n">
-        <v>62.76140872625859</v>
+        <v>38.85463484824132</v>
       </c>
       <c r="I13" t="n">
-        <v>62.76140872625859</v>
+        <v>38.85463484824132</v>
       </c>
       <c r="J13" t="n">
-        <v>111.5789214220069</v>
+        <v>38.85463484824132</v>
       </c>
       <c r="K13" t="n">
-        <v>111.5789214220069</v>
+        <v>148.8617360219803</v>
       </c>
       <c r="L13" t="n">
-        <v>111.5789214220069</v>
+        <v>148.8617360219803</v>
       </c>
       <c r="M13" t="n">
-        <v>262.9810061886395</v>
+        <v>148.8617360219803</v>
       </c>
       <c r="N13" t="n">
-        <v>262.9810061886395</v>
+        <v>308.8735617379289</v>
       </c>
       <c r="O13" t="n">
-        <v>402.2436925423776</v>
+        <v>448.1362480916669</v>
       </c>
       <c r="P13" t="n">
-        <v>520.7166611426684</v>
+        <v>470.2946957351841</v>
       </c>
       <c r="Q13" t="n">
-        <v>520.7166611426684</v>
+        <v>520.7166611426688</v>
       </c>
       <c r="R13" t="n">
-        <v>495.1795934633085</v>
+        <v>495.1795934633089</v>
       </c>
       <c r="S13" t="n">
-        <v>437.3111286015784</v>
+        <v>437.3111286015787</v>
       </c>
       <c r="T13" t="n">
-        <v>391.2370939578862</v>
+        <v>391.2370939578865</v>
       </c>
       <c r="U13" t="n">
-        <v>279.6125557604136</v>
+        <v>279.6125557604138</v>
       </c>
       <c r="V13" t="n">
-        <v>211.9754335064923</v>
+        <v>211.9754335064924</v>
       </c>
       <c r="W13" t="n">
-        <v>98.68003660117151</v>
+        <v>98.68003660117162</v>
       </c>
       <c r="X13" t="n">
-        <v>54.46671210099498</v>
+        <v>54.46671210099504</v>
       </c>
       <c r="Y13" t="n">
         <v>15.07983466553978</v>
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>380.120638872054</v>
+        <v>346.8950164278048</v>
       </c>
       <c r="C14" t="n">
-        <v>380.120638872054</v>
+        <v>346.8950164278048</v>
       </c>
       <c r="D14" t="n">
-        <v>380.120638872054</v>
+        <v>185.6587583579467</v>
       </c>
       <c r="E14" t="n">
-        <v>380.120638872054</v>
+        <v>185.6587583579467</v>
       </c>
       <c r="F14" t="n">
-        <v>189.7186860243295</v>
+        <v>185.6587583579467</v>
       </c>
       <c r="G14" t="n">
-        <v>15.07983466553978</v>
+        <v>185.6587583579467</v>
       </c>
       <c r="H14" t="n">
         <v>15.07983466553978</v>
@@ -5276,52 +5276,52 @@
         <v>15.07983466553978</v>
       </c>
       <c r="J14" t="n">
-        <v>15.07983466553978</v>
+        <v>115.4328134021288</v>
       </c>
       <c r="K14" t="n">
-        <v>97.29136080446756</v>
+        <v>285.139674688828</v>
       </c>
       <c r="L14" t="n">
-        <v>144.0122032852277</v>
+        <v>331.8605171695881</v>
       </c>
       <c r="M14" t="n">
-        <v>330.6251572712825</v>
+        <v>412.7224162565354</v>
       </c>
       <c r="N14" t="n">
-        <v>405.953050406975</v>
+        <v>488.0503093922279</v>
       </c>
       <c r="O14" t="n">
-        <v>592.5660043930297</v>
+        <v>666.4395714324995</v>
       </c>
       <c r="P14" t="n">
-        <v>753.9917332769891</v>
+        <v>666.4395714324995</v>
       </c>
       <c r="Q14" t="n">
-        <v>753.9917332769891</v>
+        <v>753.991733276989</v>
       </c>
       <c r="R14" t="n">
-        <v>753.9917332769891</v>
+        <v>737.0894290049697</v>
       </c>
       <c r="S14" t="n">
-        <v>753.9917332769891</v>
+        <v>687.2220245550906</v>
       </c>
       <c r="T14" t="n">
-        <v>753.9917332769891</v>
+        <v>687.2220245550906</v>
       </c>
       <c r="U14" t="n">
-        <v>753.9917332769891</v>
+        <v>681.4702212513719</v>
       </c>
       <c r="V14" t="n">
-        <v>753.9917332769891</v>
+        <v>537.2969692755292</v>
       </c>
       <c r="W14" t="n">
-        <v>753.9917332769891</v>
+        <v>537.2969692755292</v>
       </c>
       <c r="X14" t="n">
-        <v>570.5225917197785</v>
+        <v>537.2969692755292</v>
       </c>
       <c r="Y14" t="n">
-        <v>570.5225917197785</v>
+        <v>537.2969692755292</v>
       </c>
     </row>
     <row r="15">
@@ -5331,34 +5331,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>132.9922566001716</v>
+        <v>220.2315406621956</v>
       </c>
       <c r="C15" t="n">
-        <v>123.5277239018906</v>
+        <v>68.0850572755424</v>
       </c>
       <c r="D15" t="n">
-        <v>123.5277239018906</v>
+        <v>68.0850572755424</v>
       </c>
       <c r="E15" t="n">
-        <v>123.5277239018906</v>
+        <v>68.0850572755424</v>
       </c>
       <c r="F15" t="n">
-        <v>123.5277239018906</v>
+        <v>68.0850572755424</v>
       </c>
       <c r="G15" t="n">
-        <v>123.5277239018906</v>
+        <v>68.0850572755424</v>
       </c>
       <c r="H15" t="n">
-        <v>123.5277239018906</v>
+        <v>68.0850572755424</v>
       </c>
       <c r="I15" t="n">
-        <v>15.07983466553978</v>
+        <v>68.0850572755424</v>
       </c>
       <c r="J15" t="n">
         <v>15.07983466553978</v>
       </c>
       <c r="K15" t="n">
-        <v>53.04316068142019</v>
+        <v>53.04316068142028</v>
       </c>
       <c r="L15" t="n">
         <v>170.3760798097944</v>
@@ -5373,34 +5373,34 @@
         <v>670.3666200188891</v>
       </c>
       <c r="P15" t="n">
-        <v>753.9917332769891</v>
+        <v>753.991733276989</v>
       </c>
       <c r="Q15" t="n">
-        <v>753.9917332769891</v>
+        <v>747.0528889596546</v>
       </c>
       <c r="R15" t="n">
-        <v>753.9917332769891</v>
+        <v>747.0528889596546</v>
       </c>
       <c r="S15" t="n">
-        <v>740.4134230073562</v>
+        <v>733.4745786900218</v>
       </c>
       <c r="T15" t="n">
-        <v>557.7748125136794</v>
+        <v>696.2799731825243</v>
       </c>
       <c r="U15" t="n">
-        <v>498.0982414593149</v>
+        <v>636.6034021281598</v>
       </c>
       <c r="V15" t="n">
-        <v>307.6962886115904</v>
+        <v>573.4714256005493</v>
       </c>
       <c r="W15" t="n">
-        <v>218.245460910637</v>
+        <v>484.020597899596</v>
       </c>
       <c r="X15" t="n">
-        <v>178.6852080960887</v>
+        <v>444.4603450850477</v>
       </c>
       <c r="Y15" t="n">
-        <v>132.9922566001716</v>
+        <v>398.7673935891307</v>
       </c>
     </row>
     <row r="16">
@@ -5413,70 +5413,70 @@
         <v>15.07983466553978</v>
       </c>
       <c r="C16" t="n">
-        <v>26.65400701482422</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="D16" t="n">
-        <v>26.65400701482422</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="E16" t="n">
-        <v>26.65400701482422</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="F16" t="n">
-        <v>65.48317513009911</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="G16" t="n">
-        <v>65.48317513009911</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="H16" t="n">
-        <v>65.48317513009911</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="I16" t="n">
-        <v>65.48317513009911</v>
+        <v>28.24217778979151</v>
       </c>
       <c r="J16" t="n">
-        <v>85.51540659645792</v>
+        <v>85.57174779424878</v>
       </c>
       <c r="K16" t="n">
-        <v>85.51540659645792</v>
+        <v>195.5788489679878</v>
       </c>
       <c r="L16" t="n">
-        <v>230.0518900222979</v>
+        <v>195.5788489679878</v>
       </c>
       <c r="M16" t="n">
-        <v>381.4539747889305</v>
+        <v>346.9809337346205</v>
       </c>
       <c r="N16" t="n">
-        <v>381.4539747889305</v>
+        <v>506.9927594505691</v>
       </c>
       <c r="O16" t="n">
-        <v>520.7166611426686</v>
+        <v>506.9927594505691</v>
       </c>
       <c r="P16" t="n">
-        <v>520.7166611426686</v>
+        <v>520.7166611426682</v>
       </c>
       <c r="Q16" t="n">
-        <v>520.7166611426686</v>
+        <v>520.7166611426682</v>
       </c>
       <c r="R16" t="n">
-        <v>495.1795934633087</v>
+        <v>495.1795934633083</v>
       </c>
       <c r="S16" t="n">
-        <v>437.3111286015786</v>
+        <v>437.3111286015782</v>
       </c>
       <c r="T16" t="n">
-        <v>391.2370939578864</v>
+        <v>391.2370939578861</v>
       </c>
       <c r="U16" t="n">
-        <v>279.6125557604138</v>
+        <v>279.6125557604136</v>
       </c>
       <c r="V16" t="n">
-        <v>211.9754335064924</v>
+        <v>211.9754335064922</v>
       </c>
       <c r="W16" t="n">
-        <v>98.68003660117157</v>
+        <v>98.68003660117145</v>
       </c>
       <c r="X16" t="n">
-        <v>54.46671210099501</v>
+        <v>54.46671210099495</v>
       </c>
       <c r="Y16" t="n">
         <v>15.07983466553978</v>
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>463.3923242961948</v>
+        <v>463.392324296195</v>
       </c>
       <c r="C17" t="n">
-        <v>410.1015905040792</v>
+        <v>410.1015905040795</v>
       </c>
       <c r="D17" t="n">
-        <v>369.3697837210055</v>
+        <v>369.3697837210059</v>
       </c>
       <c r="E17" t="n">
-        <v>294.5907522718624</v>
+        <v>294.5907522718628</v>
       </c>
       <c r="F17" t="n">
-        <v>187.7709757940552</v>
+        <v>187.7709757940556</v>
       </c>
       <c r="G17" t="n">
-        <v>65.15430707116215</v>
+        <v>65.15430707116209</v>
       </c>
       <c r="H17" t="n">
         <v>15.07983466553978</v>
       </c>
       <c r="I17" t="n">
-        <v>70.95335735993308</v>
+        <v>70.95335735993312</v>
       </c>
       <c r="J17" t="n">
-        <v>85.14038870971942</v>
+        <v>159.4756760008441</v>
       </c>
       <c r="K17" t="n">
-        <v>85.14038870971942</v>
+        <v>159.4756760008441</v>
       </c>
       <c r="L17" t="n">
-        <v>271.7533426957742</v>
+        <v>206.1965184816043</v>
       </c>
       <c r="M17" t="n">
-        <v>352.6152417827216</v>
+        <v>287.0584175685516</v>
       </c>
       <c r="N17" t="n">
-        <v>427.943134918414</v>
+        <v>362.386310704244</v>
       </c>
       <c r="O17" t="n">
-        <v>462.1637696110818</v>
+        <v>396.6069453969118</v>
       </c>
       <c r="P17" t="n">
-        <v>462.1637696110818</v>
+        <v>396.6069453969118</v>
       </c>
       <c r="Q17" t="n">
-        <v>462.1637696110818</v>
+        <v>583.2198993829666</v>
       </c>
       <c r="R17" t="n">
-        <v>563.7042339002533</v>
+        <v>684.7603636721381</v>
       </c>
       <c r="S17" t="n">
-        <v>632.9356035051042</v>
+        <v>753.991733276989</v>
       </c>
       <c r="T17" t="n">
-        <v>707.1675751369977</v>
+        <v>753.991733276989</v>
       </c>
       <c r="U17" t="n">
-        <v>753.9917332769891</v>
+        <v>753.991733276989</v>
       </c>
       <c r="V17" t="n">
-        <v>730.3229325879308</v>
+        <v>730.3229325879307</v>
       </c>
       <c r="W17" t="n">
-        <v>689.4655660235042</v>
+        <v>689.465566023504</v>
       </c>
       <c r="X17" t="n">
         <v>626.5008757530782</v>
       </c>
       <c r="Y17" t="n">
-        <v>540.8060308122039</v>
+        <v>540.806030812204</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>526.7253370178978</v>
+        <v>510.5238666732347</v>
       </c>
       <c r="C18" t="n">
-        <v>337.3130627508615</v>
+        <v>510.5238666732347</v>
       </c>
       <c r="D18" t="n">
-        <v>176.5329465118932</v>
+        <v>510.5238666732347</v>
       </c>
       <c r="E18" t="n">
-        <v>176.5329465118932</v>
+        <v>336.9606627946492</v>
       </c>
       <c r="F18" t="n">
-        <v>176.5329465118932</v>
+        <v>176.5329465118933</v>
       </c>
       <c r="G18" t="n">
-        <v>176.5329465118932</v>
+        <v>176.5329465118933</v>
       </c>
       <c r="H18" t="n">
-        <v>176.5329465118932</v>
+        <v>176.5329465118933</v>
       </c>
       <c r="I18" t="n">
-        <v>68.08505727554238</v>
+        <v>68.0850572755424</v>
       </c>
       <c r="J18" t="n">
         <v>15.07983466553978</v>
       </c>
       <c r="K18" t="n">
-        <v>53.04316068142018</v>
+        <v>53.04316068142017</v>
       </c>
       <c r="L18" t="n">
-        <v>170.3760798097944</v>
+        <v>170.3760798097943</v>
       </c>
       <c r="M18" t="n">
-        <v>352.0527264137998</v>
+        <v>352.0527264137997</v>
       </c>
       <c r="N18" t="n">
-        <v>538.6656803998546</v>
+        <v>538.6656803998545</v>
       </c>
       <c r="O18" t="n">
         <v>670.3666200188891</v>
       </c>
       <c r="P18" t="n">
-        <v>753.9917332769891</v>
+        <v>753.991733276989</v>
       </c>
       <c r="Q18" t="n">
-        <v>753.9917332769891</v>
+        <v>747.0528889596546</v>
       </c>
       <c r="R18" t="n">
-        <v>753.9917332769891</v>
+        <v>747.0528889596546</v>
       </c>
       <c r="S18" t="n">
-        <v>753.9917332769891</v>
+        <v>747.0528889596546</v>
       </c>
       <c r="T18" t="n">
-        <v>753.9917332769891</v>
+        <v>700.9258195209592</v>
       </c>
       <c r="U18" t="n">
-        <v>753.9917332769891</v>
+        <v>510.5238666732347</v>
       </c>
       <c r="V18" t="n">
-        <v>563.5897804292646</v>
+        <v>510.5238666732347</v>
       </c>
       <c r="W18" t="n">
-        <v>563.5897804292646</v>
+        <v>510.5238666732347</v>
       </c>
       <c r="X18" t="n">
-        <v>526.7253370178978</v>
+        <v>510.5238666732347</v>
       </c>
       <c r="Y18" t="n">
-        <v>526.7253370178978</v>
+        <v>510.5238666732347</v>
       </c>
     </row>
     <row r="19">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>463.3923242961951</v>
+        <v>463.3923242961939</v>
       </c>
       <c r="C20" t="n">
-        <v>410.1015905040795</v>
+        <v>410.1015905040783</v>
       </c>
       <c r="D20" t="n">
-        <v>369.3697837210059</v>
+        <v>369.369783721005</v>
       </c>
       <c r="E20" t="n">
-        <v>294.5907522718628</v>
+        <v>294.5907522718617</v>
       </c>
       <c r="F20" t="n">
-        <v>187.7709757940556</v>
+        <v>187.7709757940552</v>
       </c>
       <c r="G20" t="n">
-        <v>65.15430707116209</v>
+        <v>65.15430707116215</v>
       </c>
       <c r="H20" t="n">
         <v>15.07983466553978</v>
       </c>
       <c r="I20" t="n">
-        <v>70.95335735993314</v>
+        <v>70.95335735993307</v>
       </c>
       <c r="J20" t="n">
-        <v>257.5663113459879</v>
+        <v>70.95335735993307</v>
       </c>
       <c r="K20" t="n">
-        <v>257.5663113459879</v>
+        <v>70.95335735993307</v>
       </c>
       <c r="L20" t="n">
-        <v>304.2871538267481</v>
+        <v>117.6741998406932</v>
       </c>
       <c r="M20" t="n">
-        <v>454.155706071893</v>
+        <v>198.5360989276405</v>
       </c>
       <c r="N20" t="n">
-        <v>529.4835992075854</v>
+        <v>273.8639920633329</v>
       </c>
       <c r="O20" t="n">
-        <v>563.7042339002531</v>
+        <v>308.0846267560007</v>
       </c>
       <c r="P20" t="n">
-        <v>563.7042339002531</v>
+        <v>322.3749737650184</v>
       </c>
       <c r="Q20" t="n">
-        <v>563.7042339002531</v>
+        <v>508.9879277510731</v>
       </c>
       <c r="R20" t="n">
-        <v>563.7042339002531</v>
+        <v>610.5283920402445</v>
       </c>
       <c r="S20" t="n">
-        <v>632.935603505104</v>
+        <v>679.7597616450954</v>
       </c>
       <c r="T20" t="n">
-        <v>707.1675751369976</v>
+        <v>753.991733276989</v>
       </c>
       <c r="U20" t="n">
         <v>753.991733276989</v>
       </c>
       <c r="V20" t="n">
-        <v>730.3229325879306</v>
+        <v>730.3229325879302</v>
       </c>
       <c r="W20" t="n">
-        <v>689.4655660235042</v>
+        <v>689.4655660235032</v>
       </c>
       <c r="X20" t="n">
-        <v>626.5008757530783</v>
+        <v>626.5008757530773</v>
       </c>
       <c r="Y20" t="n">
-        <v>540.806030812204</v>
+        <v>540.8060308122029</v>
       </c>
     </row>
     <row r="21">
@@ -5805,40 +5805,40 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>373.18782758154</v>
+        <v>176.5329465118933</v>
       </c>
       <c r="C21" t="n">
-        <v>183.7755533145037</v>
+        <v>176.5329465118933</v>
       </c>
       <c r="D21" t="n">
-        <v>22.99543707553545</v>
+        <v>176.5329465118933</v>
       </c>
       <c r="E21" t="n">
-        <v>22.99543707553545</v>
+        <v>176.5329465118933</v>
       </c>
       <c r="F21" t="n">
-        <v>22.99543707553545</v>
+        <v>176.5329465118933</v>
       </c>
       <c r="G21" t="n">
-        <v>15.07983466553978</v>
+        <v>176.5329465118933</v>
       </c>
       <c r="H21" t="n">
-        <v>15.07983466553978</v>
+        <v>176.5329465118933</v>
       </c>
       <c r="I21" t="n">
-        <v>15.07983466553978</v>
+        <v>68.0850572755424</v>
       </c>
       <c r="J21" t="n">
         <v>15.07983466553978</v>
       </c>
       <c r="K21" t="n">
-        <v>53.04316068142018</v>
+        <v>53.0431606814202</v>
       </c>
       <c r="L21" t="n">
         <v>170.3760798097944</v>
       </c>
       <c r="M21" t="n">
-        <v>352.0527264137999</v>
+        <v>352.0527264137998</v>
       </c>
       <c r="N21" t="n">
         <v>538.6656803998546</v>
@@ -5850,31 +5850,31 @@
         <v>753.991733276989</v>
       </c>
       <c r="Q21" t="n">
-        <v>753.991733276989</v>
+        <v>747.0528889596546</v>
       </c>
       <c r="R21" t="n">
-        <v>753.991733276989</v>
+        <v>747.0528889596546</v>
       </c>
       <c r="S21" t="n">
-        <v>563.5897804292645</v>
+        <v>556.6509361119302</v>
       </c>
       <c r="T21" t="n">
-        <v>563.5897804292645</v>
+        <v>556.6509361119302</v>
       </c>
       <c r="U21" t="n">
-        <v>563.5897804292645</v>
+        <v>366.2489832642057</v>
       </c>
       <c r="V21" t="n">
-        <v>373.18782758154</v>
+        <v>366.2489832642057</v>
       </c>
       <c r="W21" t="n">
-        <v>373.18782758154</v>
+        <v>366.2489832642057</v>
       </c>
       <c r="X21" t="n">
-        <v>373.18782758154</v>
+        <v>176.5329465118933</v>
       </c>
       <c r="Y21" t="n">
-        <v>373.18782758154</v>
+        <v>176.5329465118933</v>
       </c>
     </row>
     <row r="22">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>463.3923242961946</v>
+        <v>463.392324296194</v>
       </c>
       <c r="C23" t="n">
-        <v>410.1015905040791</v>
+        <v>410.1015905040784</v>
       </c>
       <c r="D23" t="n">
-        <v>369.3697837210058</v>
+        <v>369.3697837210051</v>
       </c>
       <c r="E23" t="n">
-        <v>294.5907522718626</v>
+        <v>294.5907522718618</v>
       </c>
       <c r="F23" t="n">
-        <v>187.7709757940555</v>
+        <v>187.7709757940548</v>
       </c>
       <c r="G23" t="n">
-        <v>65.15430707116209</v>
+        <v>65.15430707116215</v>
       </c>
       <c r="H23" t="n">
         <v>15.07983466553978</v>
@@ -5993,25 +5993,25 @@
         <v>15.07983466553978</v>
       </c>
       <c r="L23" t="n">
-        <v>109.6164268411962</v>
+        <v>61.80067714629993</v>
       </c>
       <c r="M23" t="n">
-        <v>190.4783259281435</v>
+        <v>142.6625762332473</v>
       </c>
       <c r="N23" t="n">
-        <v>377.0912799141983</v>
+        <v>217.9904693689397</v>
       </c>
       <c r="O23" t="n">
-        <v>563.704233900253</v>
+        <v>252.2111040616074</v>
       </c>
       <c r="P23" t="n">
-        <v>563.704233900253</v>
+        <v>344.7821852298778</v>
       </c>
       <c r="Q23" t="n">
-        <v>563.704233900253</v>
+        <v>531.3951392159325</v>
       </c>
       <c r="R23" t="n">
-        <v>563.704233900253</v>
+        <v>632.9356035051039</v>
       </c>
       <c r="S23" t="n">
         <v>632.9356035051039</v>
@@ -6023,16 +6023,16 @@
         <v>753.9917332769888</v>
       </c>
       <c r="V23" t="n">
-        <v>730.3229325879306</v>
+        <v>730.3229325879303</v>
       </c>
       <c r="W23" t="n">
-        <v>689.4655660235039</v>
+        <v>689.4655660235034</v>
       </c>
       <c r="X23" t="n">
-        <v>626.5008757530778</v>
+        <v>626.5008757530774</v>
       </c>
       <c r="Y23" t="n">
-        <v>540.8060308122035</v>
+        <v>540.8060308122031</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>418.2774477815469</v>
+        <v>188.6430385441253</v>
       </c>
       <c r="C24" t="n">
-        <v>228.8651735145106</v>
+        <v>188.6430385441253</v>
       </c>
       <c r="D24" t="n">
-        <v>68.0850572755424</v>
+        <v>188.6430385441253</v>
       </c>
       <c r="E24" t="n">
-        <v>68.0850572755424</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="F24" t="n">
-        <v>68.0850572755424</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="G24" t="n">
-        <v>68.0850572755424</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="H24" t="n">
-        <v>68.0850572755424</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="I24" t="n">
-        <v>68.0850572755424</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="J24" t="n">
         <v>15.07983466553978</v>
       </c>
       <c r="K24" t="n">
-        <v>53.04316068142005</v>
+        <v>53.04316068142018</v>
       </c>
       <c r="L24" t="n">
-        <v>170.3760798097942</v>
+        <v>170.3760798097943</v>
       </c>
       <c r="M24" t="n">
-        <v>352.0527264137996</v>
+        <v>352.0527264137997</v>
       </c>
       <c r="N24" t="n">
-        <v>538.6656803998544</v>
+        <v>538.6656803998545</v>
       </c>
       <c r="O24" t="n">
-        <v>670.3666200188889</v>
+        <v>670.366620018889</v>
       </c>
       <c r="P24" t="n">
-        <v>753.9917332769888</v>
+        <v>753.991733276989</v>
       </c>
       <c r="Q24" t="n">
-        <v>747.0528889596545</v>
+        <v>753.991733276989</v>
       </c>
       <c r="R24" t="n">
-        <v>610.9722821020003</v>
+        <v>753.991733276989</v>
       </c>
       <c r="S24" t="n">
-        <v>610.9722821020003</v>
+        <v>569.4469442395742</v>
       </c>
       <c r="T24" t="n">
-        <v>610.9722821020003</v>
+        <v>569.4469442395742</v>
       </c>
       <c r="U24" t="n">
-        <v>420.5703292542759</v>
+        <v>569.4469442395742</v>
       </c>
       <c r="V24" t="n">
-        <v>418.2774477815469</v>
+        <v>379.0449913918497</v>
       </c>
       <c r="W24" t="n">
-        <v>418.2774477815469</v>
+        <v>379.0449913918497</v>
       </c>
       <c r="X24" t="n">
-        <v>418.2774477815469</v>
+        <v>379.0449913918497</v>
       </c>
       <c r="Y24" t="n">
-        <v>418.2774477815469</v>
+        <v>188.6430385441253</v>
       </c>
     </row>
     <row r="25">
@@ -6203,37 +6203,37 @@
         <v>1020.898422489611</v>
       </c>
       <c r="C26" t="n">
-        <v>882.7966579874113</v>
+        <v>882.7966579874111</v>
       </c>
       <c r="D26" t="n">
-        <v>757.2538204942534</v>
+        <v>757.2538204942532</v>
       </c>
       <c r="E26" t="n">
-        <v>597.6637583350259</v>
+        <v>597.6637583350257</v>
       </c>
       <c r="F26" t="n">
-        <v>406.0329511471344</v>
+        <v>406.0329511471343</v>
       </c>
       <c r="G26" t="n">
         <v>198.605251714157</v>
       </c>
       <c r="H26" t="n">
-        <v>63.71974859845034</v>
+        <v>63.71974859845028</v>
       </c>
       <c r="I26" t="n">
         <v>35.91669941514208</v>
       </c>
       <c r="J26" t="n">
-        <v>171.2527996589549</v>
+        <v>171.252799658955</v>
       </c>
       <c r="K26" t="n">
-        <v>375.9427824528784</v>
+        <v>375.942782452878</v>
       </c>
       <c r="L26" t="n">
-        <v>634.0135279523994</v>
+        <v>634.0135279523993</v>
       </c>
       <c r="M26" t="n">
-        <v>926.2253300581076</v>
+        <v>926.2253300581074</v>
       </c>
       <c r="N26" t="n">
         <v>1212.903126212561</v>
@@ -6254,22 +6254,22 @@
         <v>1781.660986883925</v>
       </c>
       <c r="T26" t="n">
-        <v>1772.589137514411</v>
+        <v>1772.589137514412</v>
       </c>
       <c r="U26" t="n">
         <v>1735.552985020827</v>
       </c>
       <c r="V26" t="n">
-        <v>1627.073153621685</v>
+        <v>1627.073153621684</v>
       </c>
       <c r="W26" t="n">
-        <v>1501.404756347174</v>
+        <v>1501.404756347173</v>
       </c>
       <c r="X26" t="n">
         <v>1353.629035366663</v>
       </c>
       <c r="Y26" t="n">
-        <v>1183.123159715705</v>
+        <v>1183.123159715704</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>35.91669941514208</v>
+        <v>234.3527902023604</v>
       </c>
       <c r="C27" t="n">
-        <v>35.91669941514208</v>
+        <v>234.3527902023604</v>
       </c>
       <c r="D27" t="n">
-        <v>35.91669941514208</v>
+        <v>234.3527902023604</v>
       </c>
       <c r="E27" t="n">
-        <v>35.91669941514208</v>
+        <v>234.3527902023604</v>
       </c>
       <c r="F27" t="n">
-        <v>35.91669941514208</v>
+        <v>73.92507391960447</v>
       </c>
       <c r="G27" t="n">
-        <v>35.91669941514208</v>
+        <v>73.92507391960447</v>
       </c>
       <c r="H27" t="n">
-        <v>35.91669941514208</v>
+        <v>73.92507391960447</v>
       </c>
       <c r="I27" t="n">
-        <v>35.91669941514208</v>
+        <v>73.92507391960447</v>
       </c>
       <c r="J27" t="n">
         <v>35.91669941514208</v>
@@ -6333,22 +6333,22 @@
         <v>786.1817761339614</v>
       </c>
       <c r="T27" t="n">
-        <v>586.244500415946</v>
+        <v>784.6805912031641</v>
       </c>
       <c r="U27" t="n">
-        <v>346.6201877928262</v>
+        <v>760.6974407254999</v>
       </c>
       <c r="V27" t="n">
-        <v>319.1816318419158</v>
+        <v>517.6177226291339</v>
       </c>
       <c r="W27" t="n">
-        <v>265.4242247176626</v>
+        <v>248.2191533594253</v>
       </c>
       <c r="X27" t="n">
-        <v>261.5573924798144</v>
+        <v>244.3523211215772</v>
       </c>
       <c r="Y27" t="n">
-        <v>35.91669941514208</v>
+        <v>234.3527902023604</v>
       </c>
     </row>
     <row r="28">
@@ -6382,49 +6382,49 @@
         <v>35.91669941514208</v>
       </c>
       <c r="J28" t="n">
-        <v>35.91669941514208</v>
+        <v>128.2293909268232</v>
       </c>
       <c r="K28" t="n">
-        <v>35.91669941514208</v>
+        <v>266.1625141760092</v>
       </c>
       <c r="L28" t="n">
-        <v>35.91669941514208</v>
+        <v>266.1625141760092</v>
       </c>
       <c r="M28" t="n">
-        <v>222.3019056889985</v>
+        <v>266.1625141760092</v>
       </c>
       <c r="N28" t="n">
-        <v>222.3019056889985</v>
+        <v>266.1625141760092</v>
       </c>
       <c r="O28" t="n">
-        <v>222.3019056889985</v>
+        <v>266.1625141760092</v>
       </c>
       <c r="P28" t="n">
-        <v>222.3019056889985</v>
+        <v>266.1625141760092</v>
       </c>
       <c r="Q28" t="n">
-        <v>266.1625141760096</v>
+        <v>266.1625141760092</v>
       </c>
       <c r="R28" t="n">
-        <v>266.1625141760096</v>
+        <v>266.1625141760092</v>
       </c>
       <c r="S28" t="n">
-        <v>243.9874698909797</v>
+        <v>243.9874698909794</v>
       </c>
       <c r="T28" t="n">
-        <v>233.6068558239877</v>
+        <v>233.6068558239874</v>
       </c>
       <c r="U28" t="n">
-        <v>157.6757382032153</v>
+        <v>157.675738203215</v>
       </c>
       <c r="V28" t="n">
-        <v>125.7320365259941</v>
+        <v>125.7320365259939</v>
       </c>
       <c r="W28" t="n">
-        <v>48.13006019737347</v>
+        <v>48.13006019737336</v>
       </c>
       <c r="X28" t="n">
-        <v>39.61015627389711</v>
+        <v>39.61015627389705</v>
       </c>
       <c r="Y28" t="n">
         <v>35.91669941514208</v>
@@ -6440,37 +6440,37 @@
         <v>1020.898422489611</v>
       </c>
       <c r="C29" t="n">
-        <v>882.7966579874109</v>
+        <v>882.7966579874114</v>
       </c>
       <c r="D29" t="n">
-        <v>757.253820494253</v>
+        <v>757.2538204942535</v>
       </c>
       <c r="E29" t="n">
-        <v>597.6637583350256</v>
+        <v>597.6637583350262</v>
       </c>
       <c r="F29" t="n">
-        <v>406.0329511471342</v>
+        <v>406.0329511471348</v>
       </c>
       <c r="G29" t="n">
-        <v>198.6052517141569</v>
+        <v>198.6052517141575</v>
       </c>
       <c r="H29" t="n">
-        <v>63.71974859845021</v>
+        <v>63.71974859845074</v>
       </c>
       <c r="I29" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="J29" t="n">
-        <v>171.2527996589548</v>
+        <v>171.252799658955</v>
       </c>
       <c r="K29" t="n">
-        <v>375.9427824528779</v>
+        <v>375.942782452878</v>
       </c>
       <c r="L29" t="n">
-        <v>634.013527952399</v>
+        <v>634.0135279523993</v>
       </c>
       <c r="M29" t="n">
-        <v>926.2253300581073</v>
+        <v>926.2253300581077</v>
       </c>
       <c r="N29" t="n">
         <v>1212.903126212561</v>
@@ -6488,25 +6488,25 @@
         <v>1795.834970757104</v>
       </c>
       <c r="S29" t="n">
-        <v>1781.660986883924</v>
+        <v>1781.660986883925</v>
       </c>
       <c r="T29" t="n">
-        <v>1772.58913751441</v>
+        <v>1772.589137514412</v>
       </c>
       <c r="U29" t="n">
         <v>1735.552985020826</v>
       </c>
       <c r="V29" t="n">
-        <v>1627.073153621683</v>
+        <v>1627.073153621684</v>
       </c>
       <c r="W29" t="n">
-        <v>1501.404756347172</v>
+        <v>1501.404756347173</v>
       </c>
       <c r="X29" t="n">
-        <v>1353.629035366662</v>
+        <v>1353.629035366663</v>
       </c>
       <c r="Y29" t="n">
-        <v>1183.123159715704</v>
+        <v>1183.123159715705</v>
       </c>
     </row>
     <row r="30">
@@ -6516,40 +6516,40 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>225.3289736821783</v>
+        <v>320.8521898074962</v>
       </c>
       <c r="C30" t="n">
-        <v>35.91669941514207</v>
+        <v>320.8521898074962</v>
       </c>
       <c r="D30" t="n">
-        <v>35.91669941514207</v>
+        <v>320.8521898074962</v>
       </c>
       <c r="E30" t="n">
-        <v>35.91669941514207</v>
+        <v>320.8521898074962</v>
       </c>
       <c r="F30" t="n">
-        <v>35.91669941514207</v>
+        <v>320.8521898074962</v>
       </c>
       <c r="G30" t="n">
-        <v>35.91669941514207</v>
+        <v>320.8521898074962</v>
       </c>
       <c r="H30" t="n">
-        <v>35.91669941514207</v>
+        <v>197.3698112614956</v>
       </c>
       <c r="I30" t="n">
-        <v>35.91669941514207</v>
+        <v>88.9219220251447</v>
       </c>
       <c r="J30" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="K30" t="n">
-        <v>73.88002543102246</v>
+        <v>73.88002543102249</v>
       </c>
       <c r="L30" t="n">
         <v>191.2129445593966</v>
       </c>
       <c r="M30" t="n">
-        <v>372.889591163402</v>
+        <v>372.8895911634021</v>
       </c>
       <c r="N30" t="n">
         <v>577.7945675741613</v>
@@ -6564,28 +6564,28 @@
         <v>793.1206204512957</v>
       </c>
       <c r="R30" t="n">
-        <v>793.1206204512957</v>
+        <v>657.0400135936416</v>
       </c>
       <c r="S30" t="n">
-        <v>793.1206204512957</v>
+        <v>657.0400135936416</v>
       </c>
       <c r="T30" t="n">
-        <v>575.9782733750429</v>
+        <v>439.8976665173888</v>
       </c>
       <c r="U30" t="n">
-        <v>551.9951228973787</v>
+        <v>415.9145160397245</v>
       </c>
       <c r="V30" t="n">
-        <v>524.5565669464684</v>
+        <v>388.4759600888142</v>
       </c>
       <c r="W30" t="n">
-        <v>417.7311897661783</v>
+        <v>334.7185529645611</v>
       </c>
       <c r="X30" t="n">
-        <v>413.8643575283302</v>
+        <v>330.851720726713</v>
       </c>
       <c r="Y30" t="n">
-        <v>403.8648266091134</v>
+        <v>320.8521898074962</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="C31" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="D31" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="E31" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="F31" t="n">
-        <v>109.7289890376409</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="G31" t="n">
-        <v>154.0651248785209</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="H31" t="n">
-        <v>154.0651248785209</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="I31" t="n">
-        <v>154.0651248785209</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="J31" t="n">
-        <v>154.0651248785209</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="K31" t="n">
-        <v>154.0651248785209</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="L31" t="n">
-        <v>154.0651248785209</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="M31" t="n">
-        <v>154.0651248785209</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="N31" t="n">
-        <v>154.0651248785209</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="O31" t="n">
-        <v>154.0651248785209</v>
+        <v>210.1625072761041</v>
       </c>
       <c r="P31" t="n">
-        <v>266.1625141760092</v>
+        <v>210.1625072761041</v>
       </c>
       <c r="Q31" t="n">
-        <v>266.1625141760092</v>
+        <v>266.162514176009</v>
       </c>
       <c r="R31" t="n">
-        <v>266.1625141760092</v>
+        <v>266.162514176009</v>
       </c>
       <c r="S31" t="n">
-        <v>243.9874698909793</v>
+        <v>243.9874698909792</v>
       </c>
       <c r="T31" t="n">
-        <v>233.6068558239874</v>
+        <v>233.6068558239872</v>
       </c>
       <c r="U31" t="n">
-        <v>157.675738203215</v>
+        <v>157.6757382032149</v>
       </c>
       <c r="V31" t="n">
-        <v>125.7320365259939</v>
+        <v>125.7320365259938</v>
       </c>
       <c r="W31" t="n">
-        <v>48.13006019737335</v>
+        <v>48.13006019737331</v>
       </c>
       <c r="X31" t="n">
-        <v>39.61015627389705</v>
+        <v>39.61015627389703</v>
       </c>
       <c r="Y31" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514208</v>
       </c>
     </row>
     <row r="32">
@@ -6677,49 +6677,49 @@
         <v>1014.789988510278</v>
       </c>
       <c r="C32" t="n">
-        <v>877.5242945806682</v>
+        <v>877.5242945806685</v>
       </c>
       <c r="D32" t="n">
-        <v>752.8175276601005</v>
+        <v>752.8175276601007</v>
       </c>
       <c r="E32" t="n">
-        <v>594.0635360734632</v>
+        <v>594.0635360734634</v>
       </c>
       <c r="F32" t="n">
-        <v>403.2687994581619</v>
+        <v>403.268799458162</v>
       </c>
       <c r="G32" t="n">
-        <v>196.6771705977754</v>
+        <v>196.6771705977757</v>
       </c>
       <c r="H32" t="n">
-        <v>62.62773805465899</v>
+        <v>62.62773805465906</v>
       </c>
       <c r="I32" t="n">
         <v>35.660759443941</v>
       </c>
       <c r="J32" t="n">
-        <v>151.9003389533359</v>
+        <v>171.8162924559494</v>
       </c>
       <c r="K32" t="n">
-        <v>357.4097545154546</v>
+        <v>377.325708018068</v>
       </c>
       <c r="L32" t="n">
-        <v>616.2999327831712</v>
+        <v>636.2158862857846</v>
       </c>
       <c r="M32" t="n">
-        <v>909.3311676570751</v>
+        <v>929.2471211596885</v>
       </c>
       <c r="N32" t="n">
-        <v>1196.828396579724</v>
+        <v>1196.828396579725</v>
       </c>
       <c r="O32" t="n">
         <v>1443.218367059349</v>
       </c>
       <c r="P32" t="n">
-        <v>1640.446650218727</v>
+        <v>1640.446650218728</v>
       </c>
       <c r="Q32" t="n">
-        <v>1763.801366338636</v>
+        <v>1763.801366338637</v>
       </c>
       <c r="R32" t="n">
         <v>1783.03797219705</v>
@@ -6734,16 +6734,16 @@
         <v>1725.264198178543</v>
       </c>
       <c r="V32" t="n">
-        <v>1617.62043735199</v>
+        <v>1617.620437351991</v>
       </c>
       <c r="W32" t="n">
-        <v>1492.788110650069</v>
+        <v>1492.78811065007</v>
       </c>
       <c r="X32" t="n">
-        <v>1345.848460242149</v>
+        <v>1345.84846024215</v>
       </c>
       <c r="Y32" t="n">
-        <v>1176.178655163781</v>
+        <v>1176.178655163782</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>677.3344422749456</v>
+        <v>237.4411325215196</v>
       </c>
       <c r="C33" t="n">
-        <v>487.9221680079092</v>
+        <v>237.4411325215196</v>
       </c>
       <c r="D33" t="n">
-        <v>346.3355509535927</v>
+        <v>237.4411325215196</v>
       </c>
       <c r="E33" t="n">
-        <v>346.3355509535927</v>
+        <v>237.4411325215196</v>
       </c>
       <c r="F33" t="n">
-        <v>185.9078346708368</v>
+        <v>162.6663398336119</v>
       </c>
       <c r="G33" t="n">
-        <v>35.660759443941</v>
+        <v>162.6663398336119</v>
       </c>
       <c r="H33" t="n">
         <v>35.660759443941</v>
@@ -6798,31 +6798,31 @@
         <v>792.8646804800946</v>
       </c>
       <c r="Q33" t="n">
-        <v>792.8646804800946</v>
+        <v>785.9258361627603</v>
       </c>
       <c r="R33" t="n">
-        <v>792.8646804800946</v>
+        <v>785.9258361627603</v>
       </c>
       <c r="S33" t="n">
-        <v>792.8646804800946</v>
+        <v>785.9258361627603</v>
       </c>
       <c r="T33" t="n">
-        <v>792.1995661218875</v>
+        <v>568.7834890865075</v>
       </c>
       <c r="U33" t="n">
-        <v>769.0524862168133</v>
+        <v>329.1591764633877</v>
       </c>
       <c r="V33" t="n">
-        <v>742.4500008384931</v>
+        <v>302.5566910850674</v>
       </c>
       <c r="W33" t="n">
-        <v>689.5286642868301</v>
+        <v>249.6353545334043</v>
       </c>
       <c r="X33" t="n">
-        <v>686.4979026215722</v>
+        <v>246.6045928681463</v>
       </c>
       <c r="Y33" t="n">
-        <v>677.3344422749456</v>
+        <v>237.4411325215196</v>
       </c>
     </row>
     <row r="34">
@@ -6832,73 +6832,73 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>35.660759443941</v>
+        <v>71.9893437725791</v>
       </c>
       <c r="C34" t="n">
-        <v>35.660759443941</v>
+        <v>119.366070397283</v>
       </c>
       <c r="D34" t="n">
-        <v>35.660759443941</v>
+        <v>187.8045824360359</v>
       </c>
       <c r="E34" t="n">
-        <v>35.660759443941</v>
+        <v>187.8045824360359</v>
       </c>
       <c r="F34" t="n">
-        <v>35.660759443941</v>
+        <v>187.8045824360359</v>
       </c>
       <c r="G34" t="n">
-        <v>35.660759443941</v>
+        <v>187.8045824360359</v>
       </c>
       <c r="H34" t="n">
-        <v>35.660759443941</v>
+        <v>235.8077645448725</v>
       </c>
       <c r="I34" t="n">
-        <v>35.660759443941</v>
+        <v>260.0540801966775</v>
       </c>
       <c r="J34" t="n">
-        <v>35.660759443941</v>
+        <v>260.0540801966775</v>
       </c>
       <c r="K34" t="n">
-        <v>35.660759443941</v>
+        <v>260.0540801966775</v>
       </c>
       <c r="L34" t="n">
-        <v>35.660759443941</v>
+        <v>260.0540801966775</v>
       </c>
       <c r="M34" t="n">
-        <v>222.8653984859931</v>
+        <v>260.0540801966775</v>
       </c>
       <c r="N34" t="n">
-        <v>260.0540801966771</v>
+        <v>260.0540801966775</v>
       </c>
       <c r="O34" t="n">
-        <v>260.0540801966771</v>
+        <v>260.0540801966775</v>
       </c>
       <c r="P34" t="n">
-        <v>260.0540801966771</v>
+        <v>260.0540801966775</v>
       </c>
       <c r="Q34" t="n">
-        <v>260.0540801966771</v>
+        <v>260.0540801966775</v>
       </c>
       <c r="R34" t="n">
-        <v>260.0540801966771</v>
+        <v>260.0540801966775</v>
       </c>
       <c r="S34" t="n">
-        <v>238.7151064842374</v>
+        <v>238.7151064842378</v>
       </c>
       <c r="T34" t="n">
-        <v>229.1705629898356</v>
+        <v>229.1705629898359</v>
       </c>
       <c r="U34" t="n">
-        <v>154.0755159416534</v>
+        <v>154.0755159416536</v>
       </c>
       <c r="V34" t="n">
-        <v>122.9678848370224</v>
+        <v>122.9678848370226</v>
       </c>
       <c r="W34" t="n">
-        <v>46.201979080992</v>
+        <v>46.20197908099212</v>
       </c>
       <c r="X34" t="n">
-        <v>38.51814573010584</v>
+        <v>38.5181457301059</v>
       </c>
       <c r="Y34" t="n">
         <v>35.660759443941</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>623.0190675361092</v>
+        <v>623.0190675361097</v>
       </c>
       <c r="C35" t="n">
-        <v>544.0833815513515</v>
+        <v>544.083381551352</v>
       </c>
       <c r="D35" t="n">
-        <v>477.7066225756359</v>
+        <v>477.7066225756364</v>
       </c>
       <c r="E35" t="n">
-        <v>377.2826389338506</v>
+        <v>377.2826389338511</v>
       </c>
       <c r="F35" t="n">
-        <v>244.8179102634017</v>
+        <v>244.8179102634022</v>
       </c>
       <c r="G35" t="n">
-        <v>96.55628934786677</v>
+        <v>96.55628934786678</v>
       </c>
       <c r="H35" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="I35" t="n">
-        <v>51.57576979998705</v>
+        <v>51.57576979998706</v>
       </c>
       <c r="J35" t="n">
-        <v>244.900543598745</v>
+        <v>51.57576979998706</v>
       </c>
       <c r="K35" t="n">
-        <v>502.7567448750734</v>
+        <v>309.4319710763156</v>
       </c>
       <c r="L35" t="n">
-        <v>549.4775873558335</v>
+        <v>356.1528135570757</v>
       </c>
       <c r="M35" t="n">
-        <v>630.3394864427809</v>
+        <v>437.014712644023</v>
       </c>
       <c r="N35" t="n">
-        <v>888.1956877191092</v>
+        <v>512.3426057797154</v>
       </c>
       <c r="O35" t="n">
-        <v>922.4163224117769</v>
+        <v>546.5632404723832</v>
       </c>
       <c r="P35" t="n">
-        <v>992.7458834922296</v>
+        <v>670.0297874835837</v>
       </c>
       <c r="Q35" t="n">
-        <v>992.7458834922296</v>
+        <v>850.5537443902421</v>
       </c>
       <c r="R35" t="n">
-        <v>992.7458834922296</v>
+        <v>926.959591035405</v>
       </c>
       <c r="S35" t="n">
-        <v>992.7458834922296</v>
+        <v>971.0563429962473</v>
       </c>
       <c r="T35" t="n">
-        <v>1041.843237480115</v>
+        <v>1020.153696984132</v>
       </c>
       <c r="U35" t="n">
         <v>1041.843237480115</v>
       </c>
       <c r="V35" t="n">
-        <v>992.5294845984138</v>
+        <v>992.5294845984142</v>
       </c>
       <c r="W35" t="n">
-        <v>926.0271658413449</v>
+        <v>926.0271658413453</v>
       </c>
       <c r="X35" t="n">
-        <v>837.4175233782768</v>
+        <v>837.4175233782772</v>
       </c>
       <c r="Y35" t="n">
-        <v>726.0777262447604</v>
+        <v>726.0777262447608</v>
       </c>
     </row>
     <row r="36">
@@ -6990,34 +6990,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>194.4000686281878</v>
+        <v>516.2808967572972</v>
       </c>
       <c r="C36" t="n">
-        <v>194.4000686281878</v>
+        <v>516.2808967572972</v>
       </c>
       <c r="D36" t="n">
-        <v>194.4000686281878</v>
+        <v>516.2808967572972</v>
       </c>
       <c r="E36" t="n">
-        <v>20.83686474960229</v>
+        <v>342.7176928787117</v>
       </c>
       <c r="F36" t="n">
-        <v>20.83686474960229</v>
+        <v>182.2899765959558</v>
       </c>
       <c r="G36" t="n">
-        <v>20.83686474960229</v>
+        <v>182.2899765959558</v>
       </c>
       <c r="H36" t="n">
-        <v>20.83686474960229</v>
+        <v>182.2899765959558</v>
       </c>
       <c r="I36" t="n">
-        <v>20.83686474960229</v>
+        <v>73.84208735960492</v>
       </c>
       <c r="J36" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="K36" t="n">
-        <v>58.80019076548269</v>
+        <v>58.8001907654827</v>
       </c>
       <c r="L36" t="n">
         <v>176.1331098938568</v>
@@ -7038,28 +7038,28 @@
         <v>771.1019414684215</v>
       </c>
       <c r="R36" t="n">
-        <v>771.1019414684215</v>
+        <v>635.0213346107673</v>
       </c>
       <c r="S36" t="n">
-        <v>771.1019414684215</v>
+        <v>635.0213346107673</v>
       </c>
       <c r="T36" t="n">
-        <v>771.1019414684215</v>
+        <v>635.0213346107673</v>
       </c>
       <c r="U36" t="n">
-        <v>531.4776288453016</v>
+        <v>516.2808967572972</v>
       </c>
       <c r="V36" t="n">
-        <v>531.4776288453016</v>
+        <v>516.2808967572972</v>
       </c>
       <c r="W36" t="n">
-        <v>531.4776288453016</v>
+        <v>516.2808967572972</v>
       </c>
       <c r="X36" t="n">
-        <v>311.969634461998</v>
+        <v>516.2808967572972</v>
       </c>
       <c r="Y36" t="n">
-        <v>311.969634461998</v>
+        <v>516.2808967572972</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="C37" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="D37" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="E37" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="F37" t="n">
-        <v>20.83686474960229</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="G37" t="n">
-        <v>20.83686474960229</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="H37" t="n">
-        <v>20.83686474960229</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="I37" t="n">
-        <v>20.83686474960229</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="J37" t="n">
-        <v>20.83686474960229</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="K37" t="n">
-        <v>20.83686474960229</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="L37" t="n">
-        <v>20.83686474960229</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="M37" t="n">
-        <v>20.83686474960229</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="N37" t="n">
-        <v>20.83686474960229</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="O37" t="n">
-        <v>20.83686474960229</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="P37" t="n">
-        <v>20.83686474960229</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="Q37" t="n">
-        <v>20.83686474960229</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="R37" t="n">
-        <v>20.83686474960229</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="S37" t="n">
-        <v>56.03780166411086</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="T37" t="n">
-        <v>56.03780166411086</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="U37" t="n">
-        <v>39.27276256078068</v>
+        <v>39.27276256078069</v>
       </c>
       <c r="V37" t="n">
-        <v>39.27276256078068</v>
+        <v>39.27276256078069</v>
       </c>
       <c r="W37" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="X37" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="Y37" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
     </row>
     <row r="38">
@@ -7148,55 +7148,55 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>623.0190675361098</v>
+        <v>623.0190675361102</v>
       </c>
       <c r="C38" t="n">
-        <v>544.0833815513521</v>
+        <v>544.0833815513525</v>
       </c>
       <c r="D38" t="n">
-        <v>477.7066225756363</v>
+        <v>477.7066225756367</v>
       </c>
       <c r="E38" t="n">
-        <v>377.282638933851</v>
+        <v>377.2826389338514</v>
       </c>
       <c r="F38" t="n">
-        <v>244.8179102634018</v>
+        <v>244.8179102634022</v>
       </c>
       <c r="G38" t="n">
-        <v>96.55628934786677</v>
+        <v>96.55628934786678</v>
       </c>
       <c r="H38" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="I38" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="J38" t="n">
-        <v>20.83686474960229</v>
+        <v>214.1616385483603</v>
       </c>
       <c r="K38" t="n">
-        <v>20.83686474960229</v>
+        <v>214.1616385483603</v>
       </c>
       <c r="L38" t="n">
-        <v>278.6930660259306</v>
+        <v>260.8824810291204</v>
       </c>
       <c r="M38" t="n">
-        <v>536.5492673022591</v>
+        <v>341.7443801160678</v>
       </c>
       <c r="N38" t="n">
-        <v>611.8771604379515</v>
+        <v>417.0722732517602</v>
       </c>
       <c r="O38" t="n">
-        <v>869.7333617142799</v>
+        <v>666.9431149279816</v>
       </c>
       <c r="P38" t="n">
-        <v>869.7333617142799</v>
+        <v>921.3406388741098</v>
       </c>
       <c r="Q38" t="n">
-        <v>921.3406388741093</v>
+        <v>921.3406388741098</v>
       </c>
       <c r="R38" t="n">
-        <v>997.7464855192723</v>
+        <v>997.7464855192727</v>
       </c>
       <c r="S38" t="n">
         <v>1041.843237480115</v>
@@ -7208,16 +7208,16 @@
         <v>1041.843237480115</v>
       </c>
       <c r="V38" t="n">
-        <v>992.5294845984142</v>
+        <v>992.5294845984147</v>
       </c>
       <c r="W38" t="n">
-        <v>926.0271658413453</v>
+        <v>926.0271658413458</v>
       </c>
       <c r="X38" t="n">
-        <v>837.4175233782772</v>
+        <v>837.4175233782777</v>
       </c>
       <c r="Y38" t="n">
-        <v>726.0777262447609</v>
+        <v>726.0777262447614</v>
       </c>
     </row>
     <row r="39">
@@ -7227,34 +7227,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>358.8740408826953</v>
+        <v>551.5939470851179</v>
       </c>
       <c r="C39" t="n">
-        <v>181.6169809885705</v>
+        <v>551.5939470851179</v>
       </c>
       <c r="D39" t="n">
-        <v>20.83686474960229</v>
+        <v>551.5939470851179</v>
       </c>
       <c r="E39" t="n">
-        <v>20.83686474960229</v>
+        <v>378.0307432065323</v>
       </c>
       <c r="F39" t="n">
-        <v>20.83686474960229</v>
+        <v>217.6030269237764</v>
       </c>
       <c r="G39" t="n">
-        <v>20.83686474960229</v>
+        <v>67.3559516968806</v>
       </c>
       <c r="H39" t="n">
-        <v>20.83686474960229</v>
+        <v>67.3559516968806</v>
       </c>
       <c r="I39" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="J39" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="K39" t="n">
-        <v>58.80019076548269</v>
+        <v>58.8001907654827</v>
       </c>
       <c r="L39" t="n">
         <v>176.1331098938568</v>
@@ -7272,31 +7272,31 @@
         <v>778.0407857857558</v>
       </c>
       <c r="Q39" t="n">
-        <v>778.0407857857558</v>
+        <v>771.1019414684215</v>
       </c>
       <c r="R39" t="n">
-        <v>778.0407857857558</v>
+        <v>771.1019414684215</v>
       </c>
       <c r="S39" t="n">
-        <v>584.5147339473676</v>
+        <v>771.1019414684215</v>
       </c>
       <c r="T39" t="n">
-        <v>584.5147339473676</v>
+        <v>771.1019414684215</v>
       </c>
       <c r="U39" t="n">
-        <v>584.5147339473676</v>
+        <v>771.1019414684215</v>
       </c>
       <c r="V39" t="n">
-        <v>584.5147339473676</v>
+        <v>771.1019414684215</v>
       </c>
       <c r="W39" t="n">
-        <v>584.5147339473676</v>
+        <v>771.1019414684215</v>
       </c>
       <c r="X39" t="n">
-        <v>584.5147339473676</v>
+        <v>551.5939470851179</v>
       </c>
       <c r="Y39" t="n">
-        <v>358.8740408826953</v>
+        <v>551.5939470851179</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="C40" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="D40" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="E40" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="F40" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="G40" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="H40" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="I40" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="J40" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="K40" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="L40" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="M40" t="n">
-        <v>56.03780166411086</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="N40" t="n">
-        <v>56.03780166411086</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="O40" t="n">
-        <v>56.03780166411086</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="P40" t="n">
-        <v>56.03780166411086</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="Q40" t="n">
-        <v>56.03780166411086</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="R40" t="n">
-        <v>56.03780166411086</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="S40" t="n">
-        <v>56.03780166411086</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="T40" t="n">
-        <v>56.03780166411086</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="U40" t="n">
-        <v>39.27276256078068</v>
+        <v>39.27276256078069</v>
       </c>
       <c r="V40" t="n">
-        <v>39.27276256078068</v>
+        <v>39.27276256078069</v>
       </c>
       <c r="W40" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="X40" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="Y40" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>818.426354275317</v>
+        <v>818.4263542753165</v>
       </c>
       <c r="C41" t="n">
-        <v>708.1276389564251</v>
+        <v>708.1276389564247</v>
       </c>
       <c r="D41" t="n">
-        <v>610.3878506465755</v>
+        <v>610.3878506465751</v>
       </c>
       <c r="E41" t="n">
-        <v>478.6008376706561</v>
+        <v>478.6008376706557</v>
       </c>
       <c r="F41" t="n">
-        <v>314.773079666073</v>
+        <v>314.7730796660725</v>
       </c>
       <c r="G41" t="n">
         <v>135.1484294164039</v>
       </c>
       <c r="H41" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="I41" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="J41" t="n">
         <v>190.6518442323786</v>
       </c>
       <c r="K41" t="n">
-        <v>422.5915955308619</v>
+        <v>190.6518442323786</v>
       </c>
       <c r="L41" t="n">
-        <v>469.3124380116221</v>
+        <v>475.97235823646</v>
       </c>
       <c r="M41" t="n">
-        <v>788.7740086218906</v>
+        <v>795.4339288467286</v>
       </c>
       <c r="N41" t="n">
-        <v>1099.752579017079</v>
+        <v>1109.361493505742</v>
       </c>
       <c r="O41" t="n">
-        <v>1133.973213709747</v>
+        <v>1176.130484901259</v>
       </c>
       <c r="P41" t="n">
-        <v>1357.631832605491</v>
+        <v>1176.130484901259</v>
       </c>
       <c r="Q41" t="n">
-        <v>1357.631832605491</v>
+        <v>1325.915536757532</v>
       </c>
       <c r="R41" t="n">
-        <v>1403.298774200269</v>
+        <v>1371.582478352311</v>
       </c>
       <c r="S41" t="n">
-        <v>1403.298774200269</v>
+        <v>1384.940325262768</v>
       </c>
       <c r="T41" t="n">
-        <v>1403.298774200269</v>
+        <v>1403.298774200268</v>
       </c>
       <c r="U41" t="n">
         <v>1394.065670889992</v>
       </c>
       <c r="V41" t="n">
-        <v>1313.388888674158</v>
+        <v>1313.388888674157</v>
       </c>
       <c r="W41" t="n">
-        <v>1215.523540582955</v>
+        <v>1215.523540582954</v>
       </c>
       <c r="X41" t="n">
-        <v>1095.550868785753</v>
+        <v>1095.550868785752</v>
       </c>
       <c r="Y41" t="n">
-        <v>952.8480423181021</v>
+        <v>952.8480423181016</v>
       </c>
     </row>
     <row r="42">
@@ -7464,34 +7464,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>363.637338576026</v>
+        <v>684.2901237306686</v>
       </c>
       <c r="C42" t="n">
-        <v>363.637338576026</v>
+        <v>684.2901237306686</v>
       </c>
       <c r="D42" t="n">
-        <v>363.637338576026</v>
+        <v>523.5100074917003</v>
       </c>
       <c r="E42" t="n">
-        <v>190.0741346974405</v>
+        <v>349.9468036131148</v>
       </c>
       <c r="F42" t="n">
-        <v>190.0741346974405</v>
+        <v>189.5190873303588</v>
       </c>
       <c r="G42" t="n">
-        <v>155.0715558736762</v>
+        <v>189.5190873303588</v>
       </c>
       <c r="H42" t="n">
-        <v>28.06597548400538</v>
+        <v>189.5190873303588</v>
       </c>
       <c r="I42" t="n">
-        <v>28.06597548400538</v>
+        <v>81.07119809400798</v>
       </c>
       <c r="J42" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="K42" t="n">
-        <v>66.02930149988578</v>
+        <v>66.02930149988576</v>
       </c>
       <c r="L42" t="n">
         <v>183.3622206282599</v>
@@ -7509,31 +7509,31 @@
         <v>785.2698965201589</v>
       </c>
       <c r="Q42" t="n">
-        <v>785.2698965201589</v>
+        <v>778.3310522028246</v>
       </c>
       <c r="R42" t="n">
-        <v>785.2698965201589</v>
+        <v>710.2444816716136</v>
       </c>
       <c r="S42" t="n">
-        <v>785.2698965201589</v>
+        <v>710.2444816716136</v>
       </c>
       <c r="T42" t="n">
-        <v>568.1275494439061</v>
+        <v>710.2444816716136</v>
       </c>
       <c r="U42" t="n">
-        <v>568.1275494439061</v>
+        <v>710.2444816716136</v>
       </c>
       <c r="V42" t="n">
-        <v>568.1275494439061</v>
+        <v>710.2444816716136</v>
       </c>
       <c r="W42" t="n">
-        <v>542.1731915029611</v>
+        <v>684.2901237306686</v>
       </c>
       <c r="X42" t="n">
-        <v>542.1731915029611</v>
+        <v>684.2901237306686</v>
       </c>
       <c r="Y42" t="n">
-        <v>542.1731915029611</v>
+        <v>684.2901237306686</v>
       </c>
     </row>
     <row r="43">
@@ -7543,43 +7543,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="C43" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="D43" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="E43" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="F43" t="n">
-        <v>28.06597548400538</v>
+        <v>129.1280336110644</v>
       </c>
       <c r="G43" t="n">
-        <v>28.06597548400538</v>
+        <v>129.1280336110644</v>
       </c>
       <c r="H43" t="n">
-        <v>54.7383904246592</v>
+        <v>129.1280336110644</v>
       </c>
       <c r="I43" t="n">
-        <v>130.1336235606951</v>
+        <v>129.1280336110644</v>
       </c>
       <c r="J43" t="n">
-        <v>130.1336235606951</v>
+        <v>129.1280336110644</v>
       </c>
       <c r="K43" t="n">
-        <v>130.1336235606951</v>
+        <v>129.1280336110644</v>
       </c>
       <c r="L43" t="n">
-        <v>130.1336235606951</v>
+        <v>129.1280336110644</v>
       </c>
       <c r="M43" t="n">
-        <v>130.1336235606951</v>
+        <v>129.1280336110644</v>
       </c>
       <c r="N43" t="n">
-        <v>130.1336235606951</v>
+        <v>129.1280336110644</v>
       </c>
       <c r="O43" t="n">
         <v>130.1336235606951</v>
@@ -7606,13 +7606,13 @@
         <v>77.86490262931781</v>
       </c>
       <c r="W43" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="X43" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="Y43" t="n">
-        <v>28.06597548400538</v>
+        <v>28.06597548400537</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>818.4263542753175</v>
+        <v>818.4263542753171</v>
       </c>
       <c r="C44" t="n">
-        <v>708.1276389564257</v>
+        <v>708.1276389564255</v>
       </c>
       <c r="D44" t="n">
-        <v>610.3878506465758</v>
+        <v>610.3878506465755</v>
       </c>
       <c r="E44" t="n">
-        <v>478.6008376706561</v>
+        <v>478.6008376706559</v>
       </c>
       <c r="F44" t="n">
-        <v>314.7730796660728</v>
+        <v>314.7730796660726</v>
       </c>
       <c r="G44" t="n">
         <v>135.1484294164039</v>
@@ -7652,22 +7652,22 @@
         <v>190.6518442323786</v>
       </c>
       <c r="L44" t="n">
-        <v>475.97235823646</v>
+        <v>419.7060952722613</v>
       </c>
       <c r="M44" t="n">
-        <v>795.4339288467286</v>
+        <v>739.1676658825298</v>
       </c>
       <c r="N44" t="n">
-        <v>1109.361493505742</v>
+        <v>1053.095230541544</v>
       </c>
       <c r="O44" t="n">
-        <v>1143.58212819841</v>
+        <v>1325.915536757532</v>
       </c>
       <c r="P44" t="n">
-        <v>1176.130484901259</v>
+        <v>1325.915536757532</v>
       </c>
       <c r="Q44" t="n">
-        <v>1325.915536757533</v>
+        <v>1325.915536757532</v>
       </c>
       <c r="R44" t="n">
         <v>1371.582478352311</v>
@@ -7676,7 +7676,7 @@
         <v>1384.940325262768</v>
       </c>
       <c r="T44" t="n">
-        <v>1403.298774200269</v>
+        <v>1403.298774200268</v>
       </c>
       <c r="U44" t="n">
         <v>1394.065670889992</v>
@@ -7691,7 +7691,7 @@
         <v>1095.550868785753</v>
       </c>
       <c r="Y44" t="n">
-        <v>952.8480423181027</v>
+        <v>952.8480423181022</v>
       </c>
     </row>
     <row r="45">
@@ -7701,34 +7701,34 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>539.8075441959103</v>
+        <v>752.3766942618796</v>
       </c>
       <c r="C45" t="n">
-        <v>539.8075441959103</v>
+        <v>562.9644199948433</v>
       </c>
       <c r="D45" t="n">
-        <v>381.6399823622644</v>
+        <v>402.184303755875</v>
       </c>
       <c r="E45" t="n">
-        <v>208.0767784836788</v>
+        <v>228.6210998772895</v>
       </c>
       <c r="F45" t="n">
-        <v>208.0767784836788</v>
+        <v>68.19338359453357</v>
       </c>
       <c r="G45" t="n">
-        <v>208.0767784836788</v>
+        <v>68.19338359453357</v>
       </c>
       <c r="H45" t="n">
-        <v>81.07119809400798</v>
+        <v>68.19338359453357</v>
       </c>
       <c r="I45" t="n">
-        <v>81.07119809400798</v>
+        <v>68.19338359453357</v>
       </c>
       <c r="J45" t="n">
         <v>28.06597548400537</v>
       </c>
       <c r="K45" t="n">
-        <v>66.02930149988578</v>
+        <v>66.02930149988576</v>
       </c>
       <c r="L45" t="n">
         <v>183.3622206282599</v>
@@ -7746,31 +7746,31 @@
         <v>785.2698965201589</v>
       </c>
       <c r="Q45" t="n">
-        <v>785.2698965201589</v>
+        <v>778.3310522028246</v>
       </c>
       <c r="R45" t="n">
-        <v>785.2698965201589</v>
+        <v>778.3310522028246</v>
       </c>
       <c r="S45" t="n">
-        <v>785.2698965201589</v>
+        <v>778.3310522028246</v>
       </c>
       <c r="T45" t="n">
-        <v>785.2698965201589</v>
+        <v>778.3310522028246</v>
       </c>
       <c r="U45" t="n">
-        <v>785.2698965201589</v>
+        <v>778.3310522028246</v>
       </c>
       <c r="V45" t="n">
-        <v>785.2698965201589</v>
+        <v>778.3310522028246</v>
       </c>
       <c r="W45" t="n">
-        <v>759.3155385792139</v>
+        <v>752.3766942618796</v>
       </c>
       <c r="X45" t="n">
-        <v>539.8075441959103</v>
+        <v>752.3766942618796</v>
       </c>
       <c r="Y45" t="n">
-        <v>539.8075441959103</v>
+        <v>752.3766942618796</v>
       </c>
     </row>
     <row r="46">
@@ -7792,46 +7792,46 @@
         <v>28.06597548400537</v>
       </c>
       <c r="F46" t="n">
-        <v>28.06597548400537</v>
+        <v>70.33787732314762</v>
       </c>
       <c r="G46" t="n">
-        <v>28.06597548400537</v>
+        <v>70.33787732314762</v>
       </c>
       <c r="H46" t="n">
-        <v>28.06597548400537</v>
+        <v>70.33787732314762</v>
       </c>
       <c r="I46" t="n">
-        <v>28.06597548400537</v>
+        <v>70.33787732314762</v>
       </c>
       <c r="J46" t="n">
-        <v>28.06597548400537</v>
+        <v>70.33787732314762</v>
       </c>
       <c r="K46" t="n">
-        <v>28.06597548400537</v>
+        <v>70.33787732314762</v>
       </c>
       <c r="L46" t="n">
-        <v>28.06597548400537</v>
+        <v>70.33787732314762</v>
       </c>
       <c r="M46" t="n">
-        <v>28.06597548400537</v>
+        <v>70.33787732314762</v>
       </c>
       <c r="N46" t="n">
-        <v>28.06597548400537</v>
+        <v>70.33787732314762</v>
       </c>
       <c r="O46" t="n">
-        <v>130.1336235606951</v>
+        <v>70.33787732314762</v>
       </c>
       <c r="P46" t="n">
-        <v>130.1336235606951</v>
+        <v>70.33787732314762</v>
       </c>
       <c r="Q46" t="n">
-        <v>130.1336235606951</v>
+        <v>70.33787732314762</v>
       </c>
       <c r="R46" t="n">
-        <v>130.1336235606951</v>
+        <v>107.5418873023911</v>
       </c>
       <c r="S46" t="n">
-        <v>130.1336235606951</v>
+        <v>113.0578949031936</v>
       </c>
       <c r="T46" t="n">
         <v>130.1336235606951</v>
@@ -8532,22 +8532,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K9" t="n">
-        <v>171.3658051887314</v>
+        <v>168.166555548718</v>
       </c>
       <c r="L9" t="n">
-        <v>172.23559297146</v>
+        <v>169.0363433314465</v>
       </c>
       <c r="M9" t="n">
-        <v>173.4035213848624</v>
+        <v>176.4735084131581</v>
       </c>
       <c r="N9" t="n">
-        <v>160.2368887416667</v>
+        <v>163.4361383816801</v>
       </c>
       <c r="O9" t="n">
         <v>177.1666678622357</v>
       </c>
       <c r="P9" t="n">
-        <v>166.5187640737787</v>
+        <v>166.6480266854964</v>
       </c>
       <c r="Q9" t="n">
         <v>136.1300824528302</v>
@@ -9015,7 +9015,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N15" t="n">
-        <v>292.1370682466384</v>
+        <v>292.1370682466383</v>
       </c>
       <c r="O15" t="n">
         <v>255.2227828913207</v>
@@ -9255,7 +9255,7 @@
         <v>292.1370682466384</v>
       </c>
       <c r="O18" t="n">
-        <v>255.2227828913207</v>
+        <v>255.2227828913209</v>
       </c>
       <c r="P18" t="n">
         <v>206.3638740786793</v>
@@ -9717,7 +9717,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
-        <v>171.3734735841508</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L24" t="n">
         <v>240.3045437566416</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.441042905518316</v>
+        <v>195.9389762247656</v>
       </c>
       <c r="C11" t="n">
-        <v>172.057233228111</v>
+        <v>172.0572332281111</v>
       </c>
       <c r="D11" t="n">
-        <v>159.6238954891595</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>193.3306479085684</v>
       </c>
       <c r="F11" t="n">
-        <v>115.0200277041522</v>
+        <v>225.0509854869458</v>
       </c>
       <c r="G11" t="n">
-        <v>52.19197549033353</v>
+        <v>52.39795592455496</v>
       </c>
       <c r="H11" t="n">
-        <v>168.8731344554828</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>62.86150506240831</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,28 +23303,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>16.73328122929904</v>
+        <v>16.7332812292991</v>
       </c>
       <c r="S11" t="n">
-        <v>49.3687304053804</v>
+        <v>49.36873040538046</v>
       </c>
       <c r="T11" t="n">
-        <v>44.31761724675148</v>
+        <v>44.31761724675151</v>
       </c>
       <c r="U11" t="n">
-        <v>72.00227733958198</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>142.7315194560842</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>159.7481996726991</v>
+        <v>159.7481996726992</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>181.6344501416384</v>
       </c>
       <c r="Y11" t="n">
-        <v>204.1373032653821</v>
+        <v>204.1373032653822</v>
       </c>
     </row>
     <row r="12">
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7.441042905518316</v>
+        <v>7.441042905518287</v>
       </c>
       <c r="C14" t="n">
-        <v>172.0572332281111</v>
+        <v>172.057233228111</v>
       </c>
       <c r="D14" t="n">
-        <v>159.6238954891595</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>193.3306479085684</v>
       </c>
       <c r="F14" t="n">
-        <v>36.55305216769847</v>
+        <v>225.0509854869457</v>
       </c>
       <c r="G14" t="n">
-        <v>67.79744596437899</v>
+        <v>240.6899088095807</v>
       </c>
       <c r="H14" t="n">
-        <v>168.8731344554828</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>62.86150506240828</v>
+        <v>62.86150506240823</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,25 +23540,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>16.73328122929901</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>49.36873040538043</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>44.31761724675152</v>
+        <v>44.31761724675144</v>
       </c>
       <c r="U14" t="n">
-        <v>72.00227733958201</v>
+        <v>66.30799206890043</v>
       </c>
       <c r="V14" t="n">
-        <v>142.7315194560843</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>159.7481996726991</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>181.6344501416383</v>
       </c>
       <c r="Y14" t="n">
         <v>204.1373032653821</v>
@@ -26320,10 +26320,10 @@
         <v>132366.1973578724</v>
       </c>
       <c r="E2" t="n">
+        <v>113960.3143123701</v>
+      </c>
+      <c r="F2" t="n">
         <v>113960.3143123702</v>
-      </c>
-      <c r="F2" t="n">
-        <v>113960.3143123701</v>
       </c>
       <c r="G2" t="n">
         <v>132557.7823287804</v>
@@ -26338,7 +26338,7 @@
         <v>132557.7823287804</v>
       </c>
       <c r="K2" t="n">
-        <v>132557.7823287803</v>
+        <v>132557.7823287804</v>
       </c>
       <c r="L2" t="n">
         <v>132557.7823287804</v>
@@ -26375,13 +26375,13 @@
         <v>279126.1151787142</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-11</v>
       </c>
       <c r="G3" t="n">
         <v>95439.52541913334</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>96101.69331262473</v>
+        <v>96101.69331262466</v>
       </c>
       <c r="M3" t="n">
-        <v>46197.36629232284</v>
+        <v>46197.3662923228</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>72254.9148592437</v>
+        <v>72254.91485924364</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,7 +26424,7 @@
         <v>403603.2856239664</v>
       </c>
       <c r="E4" t="n">
-        <v>290416.1225000671</v>
+        <v>290416.122500067</v>
       </c>
       <c r="F4" t="n">
         <v>290416.1225000671</v>
@@ -26439,13 +26439,13 @@
         <v>361023.990543289</v>
       </c>
       <c r="J4" t="n">
-        <v>361792.6027039129</v>
+        <v>361792.602703913</v>
       </c>
       <c r="K4" t="n">
         <v>361792.602703913</v>
       </c>
       <c r="L4" t="n">
-        <v>361777.8127365343</v>
+        <v>361777.8127365344</v>
       </c>
       <c r="M4" t="n">
         <v>360967.8753632159</v>
@@ -26485,10 +26485,10 @@
         <v>38672.33876582419</v>
       </c>
       <c r="H5" t="n">
-        <v>38672.33876582419</v>
+        <v>38672.33876582418</v>
       </c>
       <c r="I5" t="n">
-        <v>38672.33876582419</v>
+        <v>38672.33876582418</v>
       </c>
       <c r="J5" t="n">
         <v>47449.67722016352</v>
@@ -26497,19 +26497,19 @@
         <v>47449.67722016352</v>
       </c>
       <c r="L5" t="n">
-        <v>47324.7475828481</v>
+        <v>47324.74758284811</v>
       </c>
       <c r="M5" t="n">
-        <v>40913.2955986873</v>
+        <v>40913.29559868731</v>
       </c>
       <c r="N5" t="n">
-        <v>40913.2955986873</v>
+        <v>40913.29559868731</v>
       </c>
       <c r="O5" t="n">
-        <v>43797.12782887324</v>
+        <v>43797.12782887323</v>
       </c>
       <c r="P5" t="n">
-        <v>43797.12782887324</v>
+        <v>43797.12782887323</v>
       </c>
     </row>
     <row r="6">
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-305129.4206631263</v>
+        <v>-305133.8870473315</v>
       </c>
       <c r="C6" t="n">
-        <v>-305129.4206631264</v>
+        <v>-305133.8870473315</v>
       </c>
       <c r="D6" t="n">
-        <v>-306052.9855598841</v>
+        <v>-306056.1786427326</v>
       </c>
       <c r="E6" t="n">
-        <v>-484224.8803041589</v>
+        <v>-484534.8381044323</v>
       </c>
       <c r="F6" t="n">
-        <v>-205098.7651254447</v>
+        <v>-205408.7229257182</v>
       </c>
       <c r="G6" t="n">
         <v>-362578.0723994661</v>
       </c>
       <c r="H6" t="n">
-        <v>-267138.5469803329</v>
+        <v>-267138.5469803327</v>
       </c>
       <c r="I6" t="n">
         <v>-267138.5469803328</v>
       </c>
       <c r="J6" t="n">
-        <v>-420180.7806021753</v>
+        <v>-420180.7806021754</v>
       </c>
       <c r="K6" t="n">
         <v>-276684.4975952962</v>
       </c>
       <c r="L6" t="n">
-        <v>-372646.4713032268</v>
+        <v>-372646.4713032267</v>
       </c>
       <c r="M6" t="n">
-        <v>-315520.7549254457</v>
+        <v>-315520.7549254456</v>
       </c>
       <c r="N6" t="n">
         <v>-269323.3886331228</v>
@@ -26561,7 +26561,7 @@
         <v>-344849.1983862701</v>
       </c>
       <c r="P6" t="n">
-        <v>-272594.2835270265</v>
+        <v>-272594.2835270264</v>
       </c>
     </row>
   </sheetData>
@@ -26692,22 +26692,22 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>178.1482641530677</v>
+      </c>
+      <c r="F2" t="n">
         <v>178.1482641530678</v>
       </c>
-      <c r="F2" t="n">
-        <v>178.1482641530677</v>
-      </c>
       <c r="G2" t="n">
+        <v>297.4476709269845</v>
+      </c>
+      <c r="H2" t="n">
         <v>297.4476709269844</v>
       </c>
-      <c r="H2" t="n">
-        <v>297.4476709269845</v>
-      </c>
       <c r="I2" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="J2" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="K2" t="n">
         <v>213.484750524001</v>
@@ -26747,10 +26747,10 @@
         <v>101.1713840758396</v>
       </c>
       <c r="F3" t="n">
-        <v>101.1713840758396</v>
+        <v>101.1713840758395</v>
       </c>
       <c r="G3" t="n">
-        <v>101.1713840758396</v>
+        <v>101.1713840758395</v>
       </c>
       <c r="H3" t="n">
         <v>101.1713840758395</v>
@@ -26799,10 +26799,10 @@
         <v>188.4979333192472</v>
       </c>
       <c r="F4" t="n">
-        <v>188.4979333192473</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="G4" t="n">
-        <v>188.4979333192473</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="H4" t="n">
         <v>188.4979333192472</v>
@@ -26814,19 +26814,19 @@
         <v>448.9587426892759</v>
       </c>
       <c r="K4" t="n">
-        <v>448.9587426892759</v>
+        <v>448.958742689276</v>
       </c>
       <c r="L4" t="n">
-        <v>445.7594930492624</v>
+        <v>445.7594930492625</v>
       </c>
       <c r="M4" t="n">
-        <v>260.4608093700286</v>
+        <v>260.4608093700288</v>
       </c>
       <c r="N4" t="n">
-        <v>260.4608093700286</v>
+        <v>260.4608093700288</v>
       </c>
       <c r="O4" t="n">
-        <v>350.8246935500672</v>
+        <v>350.8246935500671</v>
       </c>
       <c r="P4" t="n">
         <v>350.8246935500671</v>
@@ -26914,31 +26914,31 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="G2" t="n">
         <v>119.2994067739167</v>
       </c>
       <c r="H2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>94.18534375008423</v>
+        <v>94.18534375008429</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>120.1271166407809</v>
+        <v>120.1271166407808</v>
       </c>
       <c r="M2" t="n">
-        <v>57.74670786540355</v>
+        <v>57.74670786540349</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>90.36388418003855</v>
+        <v>90.36388418003833</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="L2" t="n">
         <v>119.2994067739167</v>
       </c>
       <c r="M2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>94.18534375008423</v>
+        <v>94.18534375008429</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>351.1867109187684</v>
       </c>
       <c r="I8" t="n">
-        <v>256.6898085504863</v>
+        <v>256.8197240036773</v>
       </c>
       <c r="J8" t="n">
         <v>111.3013968910535</v>
@@ -27892,7 +27892,7 @@
         <v>33.96130047619883</v>
       </c>
       <c r="P8" t="n">
-        <v>73.70860737949914</v>
+        <v>73.5786919263081</v>
       </c>
       <c r="Q8" t="n">
         <v>133.6328276992101</v>
@@ -27947,7 +27947,7 @@
         <v>148.9622183950918</v>
       </c>
       <c r="H9" t="n">
-        <v>127.8372169228968</v>
+        <v>125.0193178399729</v>
       </c>
       <c r="I9" t="n">
         <v>111.6565698077035</v>
@@ -27992,7 +27992,7 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W9" t="n">
-        <v>263.8866844940877</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X9" t="n">
         <v>217.3129144394706</v>
@@ -28087,34 +28087,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="C11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="D11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="E11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="F11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="G11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="H11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="I11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="J11" t="n">
-        <v>136.744223201322</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="K11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -28123,40 +28123,40 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>112.4091523741034</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>145.6248761086909</v>
       </c>
       <c r="P11" t="n">
-        <v>178.1482641530678</v>
+        <v>15.0919723510887</v>
       </c>
       <c r="Q11" t="n">
-        <v>89.71173703742193</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="R11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="S11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="T11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="U11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="V11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="W11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="X11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="Y11" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
     </row>
     <row r="12">
@@ -28166,10 +28166,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>178.1482641530678</v>
+        <v>171.6129337606574</v>
       </c>
       <c r="D12" t="n">
         <v>159.1723150765785</v>
@@ -28187,7 +28187,7 @@
         <v>125.7355245857741</v>
       </c>
       <c r="I12" t="n">
-        <v>17.14974357505334</v>
+        <v>107.3634103439873</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28211,31 +28211,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.869455874161009</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="T12" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="U12" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="V12" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="W12" t="n">
-        <v>78.20665025776435</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="X12" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="Y12" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
     </row>
     <row r="13">
@@ -28248,13 +28248,13 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="D13" t="n">
         <v>145.1826502507107</v>
       </c>
       <c r="E13" t="n">
-        <v>178.1482641530678</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F13" t="n">
         <v>138.9268822184467</v>
@@ -28263,58 +28263,58 @@
         <v>168.7007749271525</v>
       </c>
       <c r="H13" t="n">
-        <v>165.8243976546666</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="I13" t="n">
         <v>164.852968067965</v>
       </c>
       <c r="J13" t="n">
-        <v>169.5502264675032</v>
+        <v>120.2396075829089</v>
       </c>
       <c r="K13" t="n">
-        <v>67.02998013918996</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="L13" t="n">
         <v>32.15181624817885</v>
       </c>
       <c r="M13" t="n">
-        <v>178.1482641530678</v>
+        <v>25.21686539889342</v>
       </c>
       <c r="N13" t="n">
-        <v>16.52015736928131</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="O13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="P13" t="n">
-        <v>178.1482641530678</v>
+        <v>80.86086924723593</v>
       </c>
       <c r="Q13" t="n">
-        <v>127.2169859636892</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="R13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="S13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="T13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="U13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="V13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="W13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="X13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
       <c r="Y13" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530677</v>
       </c>
     </row>
     <row r="14">
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="C14" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="D14" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="E14" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="F14" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="G14" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="H14" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="I14" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="J14" t="n">
-        <v>76.78161896459402</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="K14" t="n">
-        <v>89.76913774117746</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>106.8192473728358</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>153.9316356498858</v>
+        <v>145.6248761086908</v>
       </c>
       <c r="P14" t="n">
-        <v>178.1482641530677</v>
+        <v>15.09197235108871</v>
       </c>
       <c r="Q14" t="n">
-        <v>89.71173703742193</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="R14" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="S14" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="T14" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="U14" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="V14" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="W14" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="X14" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="Y14" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530678</v>
       </c>
     </row>
     <row r="15">
@@ -28403,10 +28403,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>178.1482641530677</v>
+        <v>36.89313297157921</v>
       </c>
       <c r="D15" t="n">
         <v>159.1723150765785</v>
@@ -28424,10 +28424,10 @@
         <v>125.7355245857741</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>107.3634103439873</v>
       </c>
       <c r="J15" t="n">
-        <v>52.47517038390257</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28448,31 +28448,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.869455874161009</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>134.7198007890776</v>
       </c>
       <c r="S15" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="T15" t="n">
-        <v>34.15869921675028</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="U15" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="V15" t="n">
-        <v>52.15098759615498</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="W15" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="X15" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="Y15" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530678</v>
       </c>
     </row>
     <row r="16">
@@ -28485,7 +28485,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C16" t="n">
-        <v>178.1482641530677</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D16" t="n">
         <v>145.1826502507107</v>
@@ -28494,7 +28494,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F16" t="n">
-        <v>178.1482641530677</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
         <v>168.7007749271525</v>
@@ -28503,55 +28503,55 @@
         <v>165.8243976546666</v>
       </c>
       <c r="I16" t="n">
-        <v>164.852968067965</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="J16" t="n">
-        <v>140.4741848216552</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="K16" t="n">
-        <v>67.02998013918996</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="L16" t="n">
-        <v>178.1482641530677</v>
+        <v>32.15181624817886</v>
       </c>
       <c r="M16" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="N16" t="n">
-        <v>16.52015736928131</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="O16" t="n">
-        <v>178.1482641530677</v>
+        <v>37.47888399777678</v>
       </c>
       <c r="P16" t="n">
-        <v>58.47859890024885</v>
+        <v>72.34112586196512</v>
       </c>
       <c r="Q16" t="n">
         <v>127.2169859636892</v>
       </c>
       <c r="R16" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="S16" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="T16" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="U16" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="V16" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="W16" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="X16" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="Y16" t="n">
-        <v>178.1482641530677</v>
+        <v>178.1482641530678</v>
       </c>
     </row>
     <row r="17">
@@ -28561,37 +28561,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="C17" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="D17" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="E17" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="F17" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="G17" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="H17" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="I17" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="J17" t="n">
-        <v>91.11195366134788</v>
+        <v>166.1981024402617</v>
       </c>
       <c r="K17" t="n">
-        <v>6.727192146300894</v>
+        <v>6.727192146300936</v>
       </c>
       <c r="L17" t="n">
-        <v>141.3051631366612</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -28603,34 +28603,34 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>15.09197235108869</v>
+        <v>15.09197235108872</v>
       </c>
       <c r="Q17" t="n">
-        <v>89.7117370374219</v>
+        <v>278.2096703566692</v>
       </c>
       <c r="R17" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="S17" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="T17" t="n">
-        <v>297.4476709269844</v>
+        <v>222.4658813998192</v>
       </c>
       <c r="U17" t="n">
-        <v>297.4476709269844</v>
+        <v>250.1505414926498</v>
       </c>
       <c r="V17" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="W17" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="X17" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
       <c r="Y17" t="n">
-        <v>297.4476709269844</v>
+        <v>297.4476709269845</v>
       </c>
     </row>
     <row r="18">
@@ -28643,16 +28643,16 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>148.7446044746268</v>
@@ -28685,7 +28685,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.869455874161002</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>134.7198007890776</v>
@@ -28694,19 +28694,19 @@
         <v>191.5907913200043</v>
       </c>
       <c r="T18" t="n">
-        <v>214.9709236054903</v>
+        <v>169.3051248611818</v>
       </c>
       <c r="U18" t="n">
-        <v>237.2280694968886</v>
+        <v>48.73013617764137</v>
       </c>
       <c r="V18" t="n">
-        <v>52.15098759615498</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
-        <v>180.8171154622175</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
         <v>223.3842861340256</v>
@@ -28746,22 +28746,22 @@
         <v>120.2396075829089</v>
       </c>
       <c r="K19" t="n">
-        <v>67.02998013918995</v>
+        <v>67.02998013918996</v>
       </c>
       <c r="L19" t="n">
-        <v>32.15181624817885</v>
+        <v>32.15181624817886</v>
       </c>
       <c r="M19" t="n">
-        <v>25.21686539889341</v>
+        <v>25.21686539889343</v>
       </c>
       <c r="N19" t="n">
-        <v>16.52015736928131</v>
+        <v>16.52015736928133</v>
       </c>
       <c r="O19" t="n">
-        <v>37.47888399777676</v>
+        <v>37.47888399777678</v>
       </c>
       <c r="P19" t="n">
-        <v>58.47859890024884</v>
+        <v>58.47859890024885</v>
       </c>
       <c r="Q19" t="n">
         <v>127.2169859636892</v>
@@ -28798,40 +28798,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="C20" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="D20" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="E20" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="F20" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="G20" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="H20" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="I20" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="J20" t="n">
-        <v>265.2795522838413</v>
+        <v>76.78161896459403</v>
       </c>
       <c r="K20" t="n">
-        <v>6.727192146300929</v>
+        <v>6.727192146300936</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>69.70369005878541</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -28840,34 +28840,34 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>15.09197235108871</v>
+        <v>29.52666629959138</v>
       </c>
       <c r="Q20" t="n">
-        <v>89.71173703742193</v>
+        <v>278.2096703566692</v>
       </c>
       <c r="R20" t="n">
-        <v>194.8815453823668</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="S20" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="T20" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="U20" t="n">
-        <v>297.4476709269845</v>
+        <v>250.1505414926498</v>
       </c>
       <c r="V20" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="W20" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="X20" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="Y20" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
     </row>
     <row r="21">
@@ -28880,10 +28880,10 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
         <v>171.8275718397997</v>
@@ -28892,16 +28892,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>140.9081580887311</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H21" t="n">
         <v>125.7355245857741</v>
       </c>
       <c r="I21" t="n">
-        <v>107.3634103439873</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>52.47517038390258</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28922,28 +28922,28 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.869455874161016</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>134.7198007890776</v>
       </c>
       <c r="S21" t="n">
-        <v>3.092858000757069</v>
+        <v>3.092858000757076</v>
       </c>
       <c r="T21" t="n">
         <v>214.9709236054903</v>
       </c>
       <c r="U21" t="n">
-        <v>237.2280694968886</v>
+        <v>48.73013617764138</v>
       </c>
       <c r="V21" t="n">
-        <v>52.15098759615501</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
-        <v>217.3129144394706</v>
+        <v>29.49403805468134</v>
       </c>
       <c r="Y21" t="n">
         <v>223.3842861340256</v>
@@ -28992,7 +28992,7 @@
         <v>25.21686539889343</v>
       </c>
       <c r="N22" t="n">
-        <v>16.52015736928132</v>
+        <v>16.52015736928133</v>
       </c>
       <c r="O22" t="n">
         <v>37.47888399777678</v>
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="C23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="D23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="E23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="F23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="G23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="H23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="I23" t="n">
         <v>241.009769215476</v>
@@ -29065,46 +29065,46 @@
         <v>6.727192146300929</v>
       </c>
       <c r="L23" t="n">
-        <v>48.29873706555178</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>112.4091523741034</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>153.9316356498858</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>15.09197235108871</v>
+        <v>108.5981149453012</v>
       </c>
       <c r="Q23" t="n">
-        <v>89.71173703742193</v>
+        <v>278.2096703566692</v>
       </c>
       <c r="R23" t="n">
-        <v>194.8815453823668</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="S23" t="n">
-        <v>297.4476709269845</v>
+        <v>227.5169945584482</v>
       </c>
       <c r="T23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="U23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="V23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="W23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="X23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="Y23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
     </row>
     <row r="24">
@@ -29117,13 +29117,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>158.8234391199283</v>
@@ -29138,7 +29138,7 @@
         <v>107.3634103439873</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>52.47517038390258</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29159,22 +29159,22 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>6.869455874161016</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>134.7198007890776</v>
       </c>
       <c r="S24" t="n">
-        <v>191.5907913200043</v>
+        <v>8.891450172963744</v>
       </c>
       <c r="T24" t="n">
         <v>214.9709236054903</v>
       </c>
       <c r="U24" t="n">
-        <v>48.73013617764141</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V24" t="n">
-        <v>238.3789682574006</v>
+        <v>52.15098759615503</v>
       </c>
       <c r="W24" t="n">
         <v>266.7045835770116</v>
@@ -29183,7 +29183,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y24" t="n">
-        <v>223.3842861340256</v>
+        <v>34.88635281477841</v>
       </c>
     </row>
     <row r="25">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="C26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="D26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="E26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="F26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="G26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="H26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="I26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="J26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="K26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="L26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="M26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="N26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="O26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="P26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="Q26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="R26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="S26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="T26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="U26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="V26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="W26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="X26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="Y26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
     </row>
     <row r="27">
@@ -29363,7 +29363,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>148.7446044746268</v>
@@ -29375,7 +29375,7 @@
         <v>107.3634103439873</v>
       </c>
       <c r="J27" t="n">
-        <v>52.47517038390258</v>
+        <v>14.84687962448481</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29405,22 +29405,22 @@
         <v>191.5907913200043</v>
       </c>
       <c r="T27" t="n">
-        <v>17.03302064465507</v>
+        <v>213.484750524001</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>213.484750524001</v>
       </c>
       <c r="V27" t="n">
-        <v>213.4847505240009</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>213.4847505240009</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>213.484750524001</v>
       </c>
     </row>
     <row r="28">
@@ -29454,16 +29454,16 @@
         <v>164.852968067965</v>
       </c>
       <c r="J28" t="n">
-        <v>120.2396075829089</v>
+        <v>213.484750524001</v>
       </c>
       <c r="K28" t="n">
-        <v>67.02998013918996</v>
+        <v>206.3563672595799</v>
       </c>
       <c r="L28" t="n">
         <v>32.15181624817886</v>
       </c>
       <c r="M28" t="n">
-        <v>213.4847505240009</v>
+        <v>25.21686539889343</v>
       </c>
       <c r="N28" t="n">
         <v>16.52015736928132</v>
@@ -29475,31 +29475,31 @@
         <v>58.47859890024885</v>
       </c>
       <c r="Q28" t="n">
-        <v>171.5206309000641</v>
+        <v>127.2169859636892</v>
       </c>
       <c r="R28" t="n">
         <v>203.4299611556341</v>
       </c>
       <c r="S28" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="T28" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="U28" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="V28" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="W28" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="X28" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="Y28" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
     </row>
     <row r="29">
@@ -29588,10 +29588,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
         <v>159.1723150765785</v>
@@ -29606,13 +29606,13 @@
         <v>148.7446044746268</v>
       </c>
       <c r="H30" t="n">
-        <v>125.7355245857741</v>
+        <v>3.487969825233506</v>
       </c>
       <c r="I30" t="n">
-        <v>107.3634103439873</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>52.47517038390258</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29636,7 +29636,7 @@
         <v>6.869455874161016</v>
       </c>
       <c r="R30" t="n">
-        <v>134.7198007890776</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>191.5907913200043</v>
@@ -29651,7 +29651,7 @@
         <v>213.484750524001</v>
       </c>
       <c r="W30" t="n">
-        <v>160.9474601685245</v>
+        <v>213.484750524001</v>
       </c>
       <c r="X30" t="n">
         <v>213.484750524001</v>
@@ -29679,10 +29679,10 @@
         <v>141.676141212225</v>
       </c>
       <c r="F31" t="n">
-        <v>213.484750524001</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G31" t="n">
-        <v>213.484750524001</v>
+        <v>168.7007749271525</v>
       </c>
       <c r="H31" t="n">
         <v>165.8243976546666</v>
@@ -29706,13 +29706,13 @@
         <v>16.52015736928132</v>
       </c>
       <c r="O31" t="n">
-        <v>37.47888399777678</v>
+        <v>213.484750524001</v>
       </c>
       <c r="P31" t="n">
-        <v>171.7082850593279</v>
+        <v>58.47859890024885</v>
       </c>
       <c r="Q31" t="n">
-        <v>127.2169859636892</v>
+        <v>183.7826494989467</v>
       </c>
       <c r="R31" t="n">
         <v>203.4299611556341</v>
@@ -29770,7 +29770,7 @@
         <v>214.3124603908652</v>
       </c>
       <c r="J32" t="n">
-        <v>194.1953356407505</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="K32" t="n">
         <v>214.3124603908652</v>
@@ -29782,7 +29782,7 @@
         <v>214.3124603908652</v>
       </c>
       <c r="N32" t="n">
-        <v>214.3124603908652</v>
+        <v>194.1953356407516</v>
       </c>
       <c r="O32" t="n">
         <v>214.3124603908652</v>
@@ -29828,22 +29828,22 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
-        <v>19.00156419280518</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>84.79639435889969</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H33" t="n">
-        <v>125.7355245857741</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>107.3634103439873</v>
@@ -29870,7 +29870,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.869455874161016</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>134.7198007890776</v>
@@ -29879,10 +29879,10 @@
         <v>191.5907913200043</v>
       </c>
       <c r="T33" t="n">
-        <v>214.3124603908652</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>214.3124603908652</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>214.3124603908652</v>
@@ -29904,13 +29904,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>177.6169206649681</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="C34" t="n">
-        <v>166.4571809719723</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="D34" t="n">
-        <v>145.1826502507107</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="E34" t="n">
         <v>141.676141212225</v>
@@ -29922,10 +29922,10 @@
         <v>168.7007749271525</v>
       </c>
       <c r="H34" t="n">
-        <v>165.8243976546666</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="I34" t="n">
-        <v>164.852968067965</v>
+        <v>189.3441959990813</v>
       </c>
       <c r="J34" t="n">
         <v>120.2396075829089</v>
@@ -29937,10 +29937,10 @@
         <v>32.15181624817886</v>
       </c>
       <c r="M34" t="n">
-        <v>214.3124603908652</v>
+        <v>25.21686539889343</v>
       </c>
       <c r="N34" t="n">
-        <v>54.08448232956827</v>
+        <v>16.52015736928132</v>
       </c>
       <c r="O34" t="n">
         <v>37.47888399777678</v>
@@ -30007,40 +30007,40 @@
         <v>272.0591682562687</v>
       </c>
       <c r="J35" t="n">
+        <v>76.78161896459403</v>
+      </c>
+      <c r="K35" t="n">
+        <v>267.1880015163297</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>139.8056562007862</v>
+      </c>
+      <c r="Q35" t="n">
         <v>272.0591682562687</v>
       </c>
-      <c r="K35" t="n">
-        <v>267.1880015163296</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>184.3720284248848</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>86.13193303841463</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>89.71173703742193</v>
-      </c>
       <c r="R35" t="n">
-        <v>194.8815453823668</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="S35" t="n">
-        <v>227.5169945584482</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="T35" t="n">
         <v>272.0591682562687</v>
       </c>
       <c r="U35" t="n">
-        <v>250.1505414926498</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="V35" t="n">
         <v>272.0591682562687</v>
@@ -30062,7 +30062,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>60.35662422219367</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
         <v>187.5181515243659</v>
@@ -30074,7 +30074,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>148.7446044746268</v>
@@ -30083,10 +30083,10 @@
         <v>125.7355245857741</v>
       </c>
       <c r="I36" t="n">
-        <v>107.3634103439873</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>52.47517038390258</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30110,7 +30110,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>134.7198007890776</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>191.5907913200043</v>
@@ -30119,7 +30119,7 @@
         <v>214.9709236054903</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>119.6750360219532</v>
       </c>
       <c r="V36" t="n">
         <v>240.6489209154022</v>
@@ -30128,7 +30128,7 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
         <v>223.3842861340256</v>
@@ -30153,7 +30153,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F37" t="n">
-        <v>138.9268822184467</v>
+        <v>174.4833841522937</v>
       </c>
       <c r="G37" t="n">
         <v>168.7007749271525</v>
@@ -30192,7 +30192,7 @@
         <v>203.4299611556341</v>
       </c>
       <c r="S37" t="n">
-        <v>270.9945463000276</v>
+        <v>235.4380443661805</v>
       </c>
       <c r="T37" t="n">
         <v>223.761558450323</v>
@@ -30244,28 +30244,28 @@
         <v>241.009769215476</v>
       </c>
       <c r="J38" t="n">
-        <v>76.78161896459403</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="K38" t="n">
         <v>6.727192146300929</v>
       </c>
       <c r="L38" t="n">
-        <v>213.2680391874426</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>178.7821234236172</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>225.8945117006672</v>
+        <v>217.8284919025794</v>
       </c>
       <c r="P38" t="n">
-        <v>15.09197235108871</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="Q38" t="n">
-        <v>141.8402998251284</v>
+        <v>89.71173703742193</v>
       </c>
       <c r="R38" t="n">
         <v>272.0591682562687</v>
@@ -30302,25 +30302,25 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>12.03366222918243</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>148.7446044746268</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>125.7355245857741</v>
       </c>
       <c r="I39" t="n">
-        <v>107.3634103439873</v>
+        <v>61.30951426618183</v>
       </c>
       <c r="J39" t="n">
         <v>52.47517038390258</v>
@@ -30344,13 +30344,13 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.869455874161016</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>134.7198007890776</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T39" t="n">
         <v>214.9709236054903</v>
@@ -30365,10 +30365,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="40">
@@ -30411,7 +30411,7 @@
         <v>32.15181624817886</v>
       </c>
       <c r="M40" t="n">
-        <v>60.77336733274046</v>
+        <v>25.21686539889343</v>
       </c>
       <c r="N40" t="n">
         <v>16.52015736928132</v>
@@ -30429,7 +30429,7 @@
         <v>203.4299611556341</v>
       </c>
       <c r="S40" t="n">
-        <v>235.4380443661805</v>
+        <v>270.9945463000276</v>
       </c>
       <c r="T40" t="n">
         <v>223.761558450323</v>
@@ -30484,34 +30484,34 @@
         <v>241.009769215476</v>
       </c>
       <c r="K41" t="n">
+        <v>6.727192146300929</v>
+      </c>
+      <c r="L41" t="n">
         <v>241.009769215476</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>241.009769215476</v>
       </c>
       <c r="N41" t="n">
-        <v>238.0309871308044</v>
+        <v>241.009769215476</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>32.87712798267562</v>
       </c>
       <c r="P41" t="n">
+        <v>15.09197235108871</v>
+      </c>
+      <c r="Q41" t="n">
         <v>241.009769215476</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>89.71173703742193</v>
       </c>
       <c r="R41" t="n">
         <v>241.009769215476</v>
       </c>
       <c r="S41" t="n">
-        <v>227.5169945584482</v>
+        <v>241.009769215476</v>
       </c>
       <c r="T41" t="n">
-        <v>222.4658813998192</v>
+        <v>241.009769215476</v>
       </c>
       <c r="U41" t="n">
         <v>241.009769215476</v>
@@ -30536,31 +30536,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>114.0920514391002</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I42" t="n">
-        <v>107.3634103439873</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>52.47517038390258</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30581,16 +30581,16 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.869455874161016</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>134.7198007890776</v>
+        <v>67.31409596317873</v>
       </c>
       <c r="S42" t="n">
         <v>191.5907913200043</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U42" t="n">
         <v>237.2280694968886</v>
@@ -30627,16 +30627,16 @@
         <v>141.676141212225</v>
       </c>
       <c r="F43" t="n">
-        <v>138.9268822184467</v>
+        <v>241.009769215476</v>
       </c>
       <c r="G43" t="n">
         <v>168.7007749271525</v>
       </c>
       <c r="H43" t="n">
-        <v>192.7662309280543</v>
+        <v>165.8243976546666</v>
       </c>
       <c r="I43" t="n">
-        <v>241.009769215476</v>
+        <v>164.852968067965</v>
       </c>
       <c r="J43" t="n">
         <v>120.2396075829089</v>
@@ -30654,7 +30654,7 @@
         <v>16.52015736928132</v>
       </c>
       <c r="O43" t="n">
-        <v>37.47888399777678</v>
+        <v>38.4946314216461</v>
       </c>
       <c r="P43" t="n">
         <v>58.47859890024885</v>
@@ -30724,7 +30724,7 @@
         <v>6.727192146300929</v>
       </c>
       <c r="L44" t="n">
-        <v>241.009769215476</v>
+        <v>184.1751601607298</v>
       </c>
       <c r="M44" t="n">
         <v>241.009769215476</v>
@@ -30733,13 +30733,13 @@
         <v>241.009769215476</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>241.009769215476</v>
       </c>
       <c r="P44" t="n">
-        <v>47.96910033376458</v>
+        <v>15.09197235108871</v>
       </c>
       <c r="Q44" t="n">
-        <v>241.009769215476</v>
+        <v>89.71173703742193</v>
       </c>
       <c r="R44" t="n">
         <v>241.009769215476</v>
@@ -30776,28 +30776,28 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>2.586428861269127</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>148.7446044746268</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I45" t="n">
         <v>107.3634103439873</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>12.74903635447966</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30818,7 +30818,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.869455874161016</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>134.7198007890776</v>
@@ -30839,7 +30839,7 @@
         <v>241.009769215476</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
         <v>223.3842861340256</v>
@@ -30864,7 +30864,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F46" t="n">
-        <v>138.9268822184467</v>
+        <v>181.625772965055</v>
       </c>
       <c r="G46" t="n">
         <v>168.7007749271525</v>
@@ -30891,7 +30891,7 @@
         <v>16.52015736928132</v>
       </c>
       <c r="O46" t="n">
-        <v>140.5775184186755</v>
+        <v>37.47888399777678</v>
       </c>
       <c r="P46" t="n">
         <v>58.47859890024885</v>
@@ -30900,13 +30900,13 @@
         <v>127.2169859636892</v>
       </c>
       <c r="R46" t="n">
-        <v>203.4299611556341</v>
+        <v>241.009769215476</v>
       </c>
       <c r="S46" t="n">
-        <v>235.4380443661805</v>
+        <v>241.009769215476</v>
       </c>
       <c r="T46" t="n">
-        <v>223.761558450323</v>
+        <v>241.009769215476</v>
       </c>
       <c r="U46" t="n">
         <v>241.009769215476</v>
@@ -31987,10 +31987,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4067191319631738</v>
+        <v>0.4067191319631737</v>
       </c>
       <c r="H14" t="n">
-        <v>4.165312310217855</v>
+        <v>4.165312310217854</v>
       </c>
       <c r="I14" t="n">
         <v>15.68003933501027</v>
@@ -31999,37 +31999,37 @@
         <v>34.51977792645945</v>
       </c>
       <c r="K14" t="n">
-        <v>51.73619878246062</v>
+        <v>51.7361987824606</v>
       </c>
       <c r="L14" t="n">
-        <v>64.18332941727861</v>
+        <v>64.18332941727859</v>
       </c>
       <c r="M14" t="n">
-        <v>71.4163207803287</v>
+        <v>71.41632078032868</v>
       </c>
       <c r="N14" t="n">
-        <v>72.57191151401908</v>
+        <v>72.57191151401905</v>
       </c>
       <c r="O14" t="n">
-        <v>68.52759814556026</v>
+        <v>68.52759814556023</v>
       </c>
       <c r="P14" t="n">
-        <v>58.4867195752194</v>
+        <v>58.48671957521938</v>
       </c>
       <c r="Q14" t="n">
-        <v>43.92109066178822</v>
+        <v>43.92109066178821</v>
       </c>
       <c r="R14" t="n">
-        <v>25.54857067318174</v>
+        <v>25.54857067318173</v>
       </c>
       <c r="S14" t="n">
-        <v>9.268112219610833</v>
+        <v>9.268112219610831</v>
       </c>
       <c r="T14" t="n">
         <v>1.780413000168794</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0325375305570539</v>
+        <v>0.03253753055705389</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2176139204650134</v>
+        <v>0.2176139204650133</v>
       </c>
       <c r="H15" t="n">
-        <v>2.10169233712263</v>
+        <v>2.101692337122629</v>
       </c>
       <c r="I15" t="n">
-        <v>7.49240910372963</v>
+        <v>7.492409103729628</v>
       </c>
       <c r="J15" t="n">
-        <v>20.55974324884586</v>
+        <v>20.55974324884585</v>
       </c>
       <c r="K15" t="n">
-        <v>35.13987592000175</v>
+        <v>35.13987592000174</v>
       </c>
       <c r="L15" t="n">
-        <v>47.24989970447584</v>
+        <v>47.24989970447582</v>
       </c>
       <c r="M15" t="n">
-        <v>55.13840432133256</v>
+        <v>55.13840432133254</v>
       </c>
       <c r="N15" t="n">
-        <v>56.59775381427558</v>
+        <v>56.59775381427556</v>
       </c>
       <c r="O15" t="n">
-        <v>51.77588747134028</v>
+        <v>51.77588747134026</v>
       </c>
       <c r="P15" t="n">
-        <v>41.55471433862174</v>
+        <v>41.55471433862172</v>
       </c>
       <c r="Q15" t="n">
-        <v>27.77822605795505</v>
+        <v>27.77822605795504</v>
       </c>
       <c r="R15" t="n">
         <v>13.5111520092225</v>
       </c>
       <c r="S15" t="n">
-        <v>4.042083127935663</v>
+        <v>4.042083127935662</v>
       </c>
       <c r="T15" t="n">
-        <v>0.8771368109971371</v>
+        <v>0.8771368109971368</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01431670529375089</v>
+        <v>0.01431670529375088</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,22 +32145,22 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1824402007924976</v>
+        <v>0.1824402007924975</v>
       </c>
       <c r="H16" t="n">
-        <v>1.622059239773298</v>
+        <v>1.622059239773297</v>
       </c>
       <c r="I16" t="n">
-        <v>5.486474402014383</v>
+        <v>5.486474402014381</v>
       </c>
       <c r="J16" t="n">
-        <v>12.89852219602958</v>
+        <v>12.89852219602957</v>
       </c>
       <c r="K16" t="n">
-        <v>21.19623423752835</v>
+        <v>21.19623423752834</v>
       </c>
       <c r="L16" t="n">
-        <v>27.1238822160046</v>
+        <v>27.12388221600459</v>
       </c>
       <c r="M16" t="n">
         <v>28.59833074786395</v>
@@ -32169,25 +32169,25 @@
         <v>27.91832636309194</v>
       </c>
       <c r="O16" t="n">
-        <v>25.78709310837958</v>
+        <v>25.78709310837957</v>
       </c>
       <c r="P16" t="n">
-        <v>22.06531301221261</v>
+        <v>22.0653130122126</v>
       </c>
       <c r="Q16" t="n">
         <v>15.27687899545177</v>
       </c>
       <c r="R16" t="n">
-        <v>8.203174846542661</v>
+        <v>8.203174846542659</v>
       </c>
       <c r="S16" t="n">
-        <v>3.179435135629252</v>
+        <v>3.179435135629251</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7795172215679439</v>
+        <v>0.7795172215679437</v>
       </c>
       <c r="U16" t="n">
-        <v>0.009951283679590788</v>
+        <v>0.009951283679590785</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4067191319631739</v>
+        <v>0.4067191319631737</v>
       </c>
       <c r="H17" t="n">
-        <v>4.165312310217856</v>
+        <v>4.165312310217853</v>
       </c>
       <c r="I17" t="n">
-        <v>15.68003933501028</v>
+        <v>15.68003933501027</v>
       </c>
       <c r="J17" t="n">
-        <v>34.51977792645947</v>
+        <v>34.51977792645944</v>
       </c>
       <c r="K17" t="n">
-        <v>51.73619878246063</v>
+        <v>51.73619878246059</v>
       </c>
       <c r="L17" t="n">
-        <v>64.18332941727863</v>
+        <v>64.18332941727859</v>
       </c>
       <c r="M17" t="n">
-        <v>71.41632078032872</v>
+        <v>71.41632078032868</v>
       </c>
       <c r="N17" t="n">
-        <v>72.57191151401909</v>
+        <v>72.57191151401905</v>
       </c>
       <c r="O17" t="n">
-        <v>68.52759814556028</v>
+        <v>68.52759814556023</v>
       </c>
       <c r="P17" t="n">
-        <v>58.48671957521941</v>
+        <v>58.48671957521938</v>
       </c>
       <c r="Q17" t="n">
-        <v>43.92109066178823</v>
+        <v>43.9210906617882</v>
       </c>
       <c r="R17" t="n">
-        <v>25.54857067318175</v>
+        <v>25.54857067318173</v>
       </c>
       <c r="S17" t="n">
-        <v>9.268112219610837</v>
+        <v>9.268112219610829</v>
       </c>
       <c r="T17" t="n">
-        <v>1.780413000168795</v>
+        <v>1.780413000168794</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03253753055705391</v>
+        <v>0.03253753055705388</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2176139204650135</v>
+        <v>0.2176139204650133</v>
       </c>
       <c r="H18" t="n">
-        <v>2.101692337122631</v>
+        <v>2.101692337122629</v>
       </c>
       <c r="I18" t="n">
-        <v>7.492409103729631</v>
+        <v>7.492409103729626</v>
       </c>
       <c r="J18" t="n">
-        <v>20.55974324884586</v>
+        <v>20.55974324884584</v>
       </c>
       <c r="K18" t="n">
-        <v>35.13987592000176</v>
+        <v>35.13987592000174</v>
       </c>
       <c r="L18" t="n">
-        <v>47.24989970447585</v>
+        <v>47.24989970447582</v>
       </c>
       <c r="M18" t="n">
-        <v>55.13840432133257</v>
+        <v>55.13840432133254</v>
       </c>
       <c r="N18" t="n">
-        <v>56.59775381427559</v>
+        <v>56.59775381427555</v>
       </c>
       <c r="O18" t="n">
-        <v>51.77588747134029</v>
+        <v>51.77588747134025</v>
       </c>
       <c r="P18" t="n">
-        <v>41.55471433862174</v>
+        <v>41.55471433862171</v>
       </c>
       <c r="Q18" t="n">
-        <v>27.77822605795506</v>
+        <v>27.77822605795504</v>
       </c>
       <c r="R18" t="n">
-        <v>13.51115200922251</v>
+        <v>13.5111520092225</v>
       </c>
       <c r="S18" t="n">
-        <v>4.042083127935665</v>
+        <v>4.042083127935662</v>
       </c>
       <c r="T18" t="n">
-        <v>0.8771368109971374</v>
+        <v>0.8771368109971367</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01431670529375089</v>
+        <v>0.01431670529375088</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1824402007924976</v>
+        <v>0.1824402007924975</v>
       </c>
       <c r="H19" t="n">
-        <v>1.622059239773298</v>
+        <v>1.622059239773297</v>
       </c>
       <c r="I19" t="n">
-        <v>5.486474402014385</v>
+        <v>5.48647440201438</v>
       </c>
       <c r="J19" t="n">
-        <v>12.89852219602958</v>
+        <v>12.89852219602957</v>
       </c>
       <c r="K19" t="n">
-        <v>21.19623423752835</v>
+        <v>21.19623423752834</v>
       </c>
       <c r="L19" t="n">
-        <v>27.12388221600461</v>
+        <v>27.12388221600458</v>
       </c>
       <c r="M19" t="n">
-        <v>28.59833074786396</v>
+        <v>28.59833074786394</v>
       </c>
       <c r="N19" t="n">
-        <v>27.91832636309195</v>
+        <v>27.91832636309193</v>
       </c>
       <c r="O19" t="n">
-        <v>25.78709310837958</v>
+        <v>25.78709310837956</v>
       </c>
       <c r="P19" t="n">
-        <v>22.06531301221261</v>
+        <v>22.0653130122126</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.27687899545178</v>
+        <v>15.27687899545177</v>
       </c>
       <c r="R19" t="n">
-        <v>8.203174846542664</v>
+        <v>8.203174846542657</v>
       </c>
       <c r="S19" t="n">
-        <v>3.179435135629253</v>
+        <v>3.179435135629251</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7795172215679441</v>
+        <v>0.7795172215679436</v>
       </c>
       <c r="U19" t="n">
-        <v>0.00995128367959079</v>
+        <v>0.009951283679590783</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,16 +32464,16 @@
         <v>0.4067191319631737</v>
       </c>
       <c r="H20" t="n">
-        <v>4.165312310217854</v>
+        <v>4.165312310217853</v>
       </c>
       <c r="I20" t="n">
         <v>15.68003933501027</v>
       </c>
       <c r="J20" t="n">
-        <v>34.51977792645945</v>
+        <v>34.51977792645944</v>
       </c>
       <c r="K20" t="n">
-        <v>51.7361987824606</v>
+        <v>51.73619878246059</v>
       </c>
       <c r="L20" t="n">
         <v>64.18332941727859</v>
@@ -32491,19 +32491,19 @@
         <v>58.48671957521938</v>
       </c>
       <c r="Q20" t="n">
-        <v>43.92109066178821</v>
+        <v>43.9210906617882</v>
       </c>
       <c r="R20" t="n">
         <v>25.54857067318173</v>
       </c>
       <c r="S20" t="n">
-        <v>9.268112219610831</v>
+        <v>9.268112219610829</v>
       </c>
       <c r="T20" t="n">
         <v>1.780413000168794</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03253753055705389</v>
+        <v>0.03253753055705388</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,10 +32546,10 @@
         <v>2.101692337122629</v>
       </c>
       <c r="I21" t="n">
-        <v>7.492409103729628</v>
+        <v>7.492409103729626</v>
       </c>
       <c r="J21" t="n">
-        <v>20.55974324884585</v>
+        <v>20.55974324884584</v>
       </c>
       <c r="K21" t="n">
         <v>35.13987592000174</v>
@@ -32561,13 +32561,13 @@
         <v>55.13840432133254</v>
       </c>
       <c r="N21" t="n">
-        <v>56.59775381427556</v>
+        <v>56.59775381427555</v>
       </c>
       <c r="O21" t="n">
-        <v>51.77588747134026</v>
+        <v>51.77588747134025</v>
       </c>
       <c r="P21" t="n">
-        <v>41.55471433862172</v>
+        <v>41.55471433862171</v>
       </c>
       <c r="Q21" t="n">
         <v>27.77822605795504</v>
@@ -32579,7 +32579,7 @@
         <v>4.042083127935662</v>
       </c>
       <c r="T21" t="n">
-        <v>0.8771368109971368</v>
+        <v>0.8771368109971367</v>
       </c>
       <c r="U21" t="n">
         <v>0.01431670529375088</v>
@@ -32625,7 +32625,7 @@
         <v>1.622059239773297</v>
       </c>
       <c r="I22" t="n">
-        <v>5.486474402014381</v>
+        <v>5.48647440201438</v>
       </c>
       <c r="J22" t="n">
         <v>12.89852219602957</v>
@@ -32634,16 +32634,16 @@
         <v>21.19623423752834</v>
       </c>
       <c r="L22" t="n">
-        <v>27.12388221600459</v>
+        <v>27.12388221600458</v>
       </c>
       <c r="M22" t="n">
-        <v>28.59833074786395</v>
+        <v>28.59833074786394</v>
       </c>
       <c r="N22" t="n">
-        <v>27.91832636309194</v>
+        <v>27.91832636309193</v>
       </c>
       <c r="O22" t="n">
-        <v>25.78709310837957</v>
+        <v>25.78709310837956</v>
       </c>
       <c r="P22" t="n">
         <v>22.0653130122126</v>
@@ -32652,16 +32652,16 @@
         <v>15.27687899545177</v>
       </c>
       <c r="R22" t="n">
-        <v>8.203174846542659</v>
+        <v>8.203174846542657</v>
       </c>
       <c r="S22" t="n">
         <v>3.179435135629251</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7795172215679437</v>
+        <v>0.7795172215679436</v>
       </c>
       <c r="U22" t="n">
-        <v>0.009951283679590785</v>
+        <v>0.009951283679590783</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -35167,7 +35167,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.1299154531910392</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -35188,7 +35188,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0.129915453191039</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,22 +35252,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3.069987028295762</v>
+      </c>
+      <c r="N9" t="n">
         <v>3.199249640013477</v>
-      </c>
-      <c r="L9" t="n">
-        <v>3.199249640013477</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>3.199249640013477</v>
       </c>
       <c r="P9" t="n">
-        <v>3.069987028295762</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>59.962604236728</v>
+        <v>101.3666451884737</v>
       </c>
       <c r="K11" t="n">
         <v>171.4210720067668</v>
@@ -35419,16 +35419,16 @@
         <v>81.67868594641146</v>
       </c>
       <c r="N11" t="n">
-        <v>188.4979333192472</v>
+        <v>76.08878094514388</v>
       </c>
       <c r="O11" t="n">
-        <v>34.56629766936143</v>
+        <v>180.1911737780523</v>
       </c>
       <c r="P11" t="n">
-        <v>163.0562918019791</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>88.43652711564579</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35544,13 +35544,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>11.69108318109542</v>
+        <v>11.69108318109537</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>36.47212294084278</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -35559,34 +35559,34 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>12.32386649840114</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>49.31061888459426</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>111.1182840138778</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>152.9313987541744</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>161.6281067837864</v>
       </c>
       <c r="O13" t="n">
         <v>140.669380155291</v>
       </c>
       <c r="P13" t="n">
-        <v>119.6696652528189</v>
+        <v>22.38227034698708</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>50.93127818937851</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>101.3666451884738</v>
       </c>
       <c r="K14" t="n">
-        <v>83.04194559487655</v>
+        <v>171.4210720067669</v>
       </c>
       <c r="L14" t="n">
-        <v>47.19277018258605</v>
+        <v>47.19277018258602</v>
       </c>
       <c r="M14" t="n">
-        <v>188.4979333192473</v>
+        <v>81.67868594641143</v>
       </c>
       <c r="N14" t="n">
-        <v>76.08878094514388</v>
+        <v>76.08878094514385</v>
       </c>
       <c r="O14" t="n">
-        <v>188.4979333192473</v>
+        <v>180.1911737780522</v>
       </c>
       <c r="P14" t="n">
-        <v>163.0562918019791</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>88.43652711564587</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>38.34679395543476</v>
+        <v>38.34679395543485</v>
       </c>
       <c r="L15" t="n">
         <v>118.5181001296709</v>
       </c>
       <c r="M15" t="n">
-        <v>183.5117642464702</v>
+        <v>183.5117642464701</v>
       </c>
       <c r="N15" t="n">
-        <v>188.4979333192473</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="O15" t="n">
         <v>133.0312521404388</v>
       </c>
       <c r="P15" t="n">
-        <v>84.46981137181812</v>
+        <v>84.46981137181811</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35781,7 +35781,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>11.69108318109539</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -35790,7 +35790,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>39.22138193462109</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -35799,28 +35799,28 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>13.29529608510276</v>
       </c>
       <c r="J16" t="n">
-        <v>20.23457723874627</v>
+        <v>57.90865657015885</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>111.1182840138778</v>
       </c>
       <c r="L16" t="n">
-        <v>145.9964479048889</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>152.9313987541743</v>
+        <v>152.9313987541744</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>161.6281067837864</v>
       </c>
       <c r="O16" t="n">
-        <v>140.669380155291</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>13.86252696171627</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35878,43 +35878,43 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>56.43790171150839</v>
+        <v>56.43790171150843</v>
       </c>
       <c r="J17" t="n">
-        <v>14.33033469675388</v>
+        <v>89.41648347566768</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>188.4979333192473</v>
+        <v>47.19277018258602</v>
       </c>
       <c r="M17" t="n">
-        <v>81.67868594641148</v>
+        <v>81.67868594641143</v>
       </c>
       <c r="N17" t="n">
-        <v>76.0887809451439</v>
+        <v>76.08878094514385</v>
       </c>
       <c r="O17" t="n">
-        <v>34.56629766936145</v>
+        <v>34.5662976693614</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="R17" t="n">
         <v>102.5661255446176</v>
       </c>
       <c r="S17" t="n">
-        <v>69.93067636853625</v>
+        <v>69.9306763685363</v>
       </c>
       <c r="T17" t="n">
-        <v>74.98178952716516</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>47.29712943433467</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>38.34679395543477</v>
+        <v>38.34679395543474</v>
       </c>
       <c r="L18" t="n">
-        <v>118.5181001296709</v>
+        <v>118.5181001296708</v>
       </c>
       <c r="M18" t="n">
-        <v>183.5117642464702</v>
+        <v>183.5117642464701</v>
       </c>
       <c r="N18" t="n">
-        <v>188.4979333192473</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="O18" t="n">
         <v>133.0312521404389</v>
       </c>
       <c r="P18" t="n">
-        <v>84.46981137181814</v>
+        <v>84.46981137181811</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36115,10 +36115,10 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>56.43790171150844</v>
+        <v>56.43790171150837</v>
       </c>
       <c r="J20" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>47.19277018258602</v>
       </c>
       <c r="M20" t="n">
-        <v>151.3823760051968</v>
+        <v>81.67868594641143</v>
       </c>
       <c r="N20" t="n">
         <v>76.08878094514385</v>
@@ -36136,22 +36136,22 @@
         <v>34.5662976693614</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>14.43469394850266</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>102.5661255446176</v>
       </c>
       <c r="S20" t="n">
-        <v>69.9306763685363</v>
+        <v>69.93067636853624</v>
       </c>
       <c r="T20" t="n">
-        <v>74.98178952716522</v>
+        <v>74.98178952716516</v>
       </c>
       <c r="U20" t="n">
-        <v>47.29712943433473</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36200,10 +36200,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>38.34679395543475</v>
+        <v>38.34679395543474</v>
       </c>
       <c r="L21" t="n">
-        <v>118.5181001296709</v>
+        <v>118.5181001296708</v>
       </c>
       <c r="M21" t="n">
         <v>183.5117642464701</v>
@@ -36361,34 +36361,34 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>95.49150724813779</v>
+        <v>47.19277018258602</v>
       </c>
       <c r="M23" t="n">
         <v>81.67868594641143</v>
       </c>
       <c r="N23" t="n">
+        <v>76.08878094514385</v>
+      </c>
+      <c r="O23" t="n">
+        <v>34.5662976693614</v>
+      </c>
+      <c r="P23" t="n">
+        <v>93.50614259421245</v>
+      </c>
+      <c r="Q23" t="n">
         <v>188.4979333192472</v>
       </c>
-      <c r="O23" t="n">
-        <v>188.4979333192472</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>102.5661255446176</v>
       </c>
       <c r="S23" t="n">
-        <v>69.9306763685363</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>74.98178952716522</v>
+        <v>74.98178952716516</v>
       </c>
       <c r="U23" t="n">
-        <v>47.29712943433473</v>
+        <v>47.29712943433467</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>38.34679395543461</v>
+        <v>38.34679395543475</v>
       </c>
       <c r="L24" t="n">
         <v>118.5181001296709</v>
@@ -36592,10 +36592,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>136.7031315594069</v>
+        <v>136.703131559407</v>
       </c>
       <c r="K26" t="n">
-        <v>206.7575583777</v>
+        <v>206.7575583777001</v>
       </c>
       <c r="L26" t="n">
         <v>260.677520706587</v>
@@ -36607,16 +36607,16 @@
         <v>289.5735314691448</v>
       </c>
       <c r="O26" t="n">
-        <v>248.0510481933623</v>
+        <v>248.0510481933624</v>
       </c>
       <c r="P26" t="n">
-        <v>198.3927781729122</v>
+        <v>198.3927781729123</v>
       </c>
       <c r="Q26" t="n">
-        <v>123.773013486579</v>
+        <v>123.7730134865791</v>
       </c>
       <c r="R26" t="n">
-        <v>18.60320514163411</v>
+        <v>18.60320514163417</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,16 +36750,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>93.24514294109204</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>139.3263871203899</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>188.2678851251075</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -36771,7 +36771,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>44.30364493637487</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36841,7 +36841,7 @@
         <v>295.1634364704124</v>
       </c>
       <c r="N29" t="n">
-        <v>289.5735314691448</v>
+        <v>289.5735314691449</v>
       </c>
       <c r="O29" t="n">
         <v>248.0510481933624</v>
@@ -36853,7 +36853,7 @@
         <v>123.7730134865791</v>
       </c>
       <c r="R29" t="n">
-        <v>18.60320514163417</v>
+        <v>18.6032051416342</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36975,10 +36975,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>74.55786830555434</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>44.78397559684852</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -37002,13 +37002,13 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>176.0058665262242</v>
       </c>
       <c r="P31" t="n">
-        <v>113.229686159079</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>56.56566353525749</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,10 +37066,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>117.4137166761565</v>
+        <v>137.5308414262711</v>
       </c>
       <c r="K32" t="n">
-        <v>207.5852682445643</v>
+        <v>207.5852682445642</v>
       </c>
       <c r="L32" t="n">
         <v>261.5052305734512</v>
@@ -37078,7 +37078,7 @@
         <v>295.9911463372766</v>
       </c>
       <c r="N32" t="n">
-        <v>290.4012413360091</v>
+        <v>270.2841165858954</v>
       </c>
       <c r="O32" t="n">
         <v>248.8787580602266</v>
@@ -37087,10 +37087,10 @@
         <v>199.2204880397765</v>
       </c>
       <c r="Q32" t="n">
-        <v>124.6007233534433</v>
+        <v>124.6007233534432</v>
       </c>
       <c r="R32" t="n">
-        <v>19.43091500849841</v>
+        <v>19.43091500849835</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37200,13 +37200,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>36.69553972589708</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>47.85527941889282</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>69.12981014015446</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -37218,10 +37218,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>48.48806273619859</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>24.49122793111621</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -37233,10 +37233,10 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>189.0955949919718</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>37.56432496028695</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -37303,10 +37303,10 @@
         <v>31.04939904079269</v>
       </c>
       <c r="J35" t="n">
-        <v>195.2775492916747</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>260.4608093700286</v>
+        <v>260.4608093700288</v>
       </c>
       <c r="L35" t="n">
         <v>47.19277018258602</v>
@@ -37315,28 +37315,28 @@
         <v>81.67868594641143</v>
       </c>
       <c r="N35" t="n">
-        <v>260.4608093700286</v>
+        <v>76.08878094514385</v>
       </c>
       <c r="O35" t="n">
         <v>34.5662976693614</v>
       </c>
       <c r="P35" t="n">
-        <v>71.03996068732592</v>
+        <v>124.7136838496975</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>182.3474312188468</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>77.1776228739019</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>44.54217369782054</v>
       </c>
       <c r="T35" t="n">
         <v>49.59328685644947</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>21.90862676361897</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -37449,7 +37449,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>35.55650193384704</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -37488,7 +37488,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>35.55650193384704</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -37540,28 +37540,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>195.2775492916747</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>260.4608093700286</v>
+        <v>47.19277018258602</v>
       </c>
       <c r="M38" t="n">
-        <v>260.4608093700286</v>
+        <v>81.67868594641143</v>
       </c>
       <c r="N38" t="n">
         <v>76.08878094514385</v>
       </c>
       <c r="O38" t="n">
-        <v>260.4608093700286</v>
+        <v>252.3947895719408</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>256.96719590518</v>
       </c>
       <c r="Q38" t="n">
-        <v>52.1285627877065</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>77.1776228739019</v>
@@ -37707,25 +37707,25 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
         <v>35.55650193384704</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -37780,34 +37780,34 @@
         <v>164.228150250882</v>
       </c>
       <c r="K41" t="n">
-        <v>234.2825770691751</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>47.19277018258602</v>
+        <v>288.202539398062</v>
       </c>
       <c r="M41" t="n">
         <v>322.6884551618874</v>
       </c>
       <c r="N41" t="n">
-        <v>314.1197680759482</v>
+        <v>317.0985501606199</v>
       </c>
       <c r="O41" t="n">
-        <v>34.5662976693614</v>
+        <v>67.44342565203702</v>
       </c>
       <c r="P41" t="n">
-        <v>225.9177968643873</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>151.2980321780541</v>
       </c>
       <c r="R41" t="n">
         <v>46.12822383310919</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>13.49277465702784</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>18.54388781565676</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37923,16 +37923,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>102.0828869970294</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>26.9418332733877</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>76.15680114751098</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -37950,7 +37950,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>1.015747423869326</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -38020,7 +38020,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>288.202539398062</v>
+        <v>231.3679303433159</v>
       </c>
       <c r="M44" t="n">
         <v>322.6884551618874</v>
@@ -38029,13 +38029,13 @@
         <v>317.0985501606199</v>
       </c>
       <c r="O44" t="n">
-        <v>34.5662976693614</v>
+        <v>275.5760668848374</v>
       </c>
       <c r="P44" t="n">
-        <v>32.87712798267587</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>151.2980321780541</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>46.12822383310919</v>
@@ -38160,7 +38160,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>42.69889074660834</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -38187,7 +38187,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>103.0986344208987</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -38196,13 +38196,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>37.5798080598419</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>5.571724849295453</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>17.248210765153</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
